--- a/pre_experiment.xlsx
+++ b/pre_experiment.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="15123" sheetId="1" r:id="rId1"/>
-    <sheet name="P40" sheetId="2" r:id="rId2"/>
+    <sheet name="15123" sheetId="3" r:id="rId1"/>
+    <sheet name="15123（已丢弃）" sheetId="1" r:id="rId2"/>
+    <sheet name="P40（已丢弃）" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="59">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +218,27 @@
   </si>
   <si>
     <t>real_net_wav_L1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame_step=256，太大，调整为128，
+重置实验，本页实验仅在页内有对比作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_lr0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_lr0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_lr001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_lr003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,9 +247,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +271,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +296,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -317,11 +359,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,15 +660,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
@@ -674,20 +731,9 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0.8135</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K3" s="7"/>
@@ -703,26 +749,15 @@
         <v>13</v>
       </c>
       <c r="E4" s="3">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0.61919999999999997</v>
-      </c>
+      <c r="G4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K5" s="7"/>
@@ -738,6 +773,310 @@
         <v>13</v>
       </c>
       <c r="E6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="11:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
+    <col min="9" max="10" width="26.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.8135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.61919999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.01</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -846,9 +1185,19 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -885,18 +1234,21 @@
       <c r="K26" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:D15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1070,9 +1422,24 @@
         <v>44</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A13:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pre_experiment.xlsx
+++ b/pre_experiment.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A349AD-9EA5-4035-8C6C-491352C2F7DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4200" yWindow="2445" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15123" sheetId="3" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,12 +202,6 @@
   </si>
   <si>
     <t>0.092 ± 0.016 -&gt; 8.735 ± 6.017</t>
-  </si>
-  <si>
-    <t>nn_se_realNet_complexMseOnly</t>
-  </si>
-  <si>
-    <t>real_net_spec_mse</t>
   </si>
   <si>
     <t>real_net_mag_mse+
@@ -214,13 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nn_se_realNet_wavL1</t>
-  </si>
-  <si>
-    <t>real_net_wav_L1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>frame_step=256，太大，调整为128，
 重置实验，本页实验仅在页内有对比作用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,12 +228,163 @@
   <si>
     <t>nn_se_lr003</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn+2blstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*5, [16 32 16 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn+1blstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cnn1blstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_only1blstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_only2blstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1blstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2blstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_spec_mse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_mag_mse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_wav_L1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rWavL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rWavL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_wav_L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.974 ± 0.269 -&gt; 2.272 ± 0.129</t>
+  </si>
+  <si>
+    <t>0.689 ± 0.015 -&gt; 0.711 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.092 ± 0.016 -&gt; 7.976 ± 7.070</t>
+  </si>
+  <si>
+    <t>1.974 ± 0.269 -&gt; 2.063 ± 0.207</t>
+  </si>
+  <si>
+    <t>0.689 ± 0.015 -&gt; 0.684 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.092 ± 0.016 -&gt; 4.885 ± 6.991</t>
+  </si>
+  <si>
+    <t>cnn+1blstm+1lstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cnn1blstm1lstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[256]*2, b+uni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.606 ± 0.151</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.728 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.899 ± 16.621</t>
+  </si>
+  <si>
+    <t>cost_epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.974 ± 0.269 -&gt; 2.421 ± 0.122</t>
+  </si>
+  <si>
+    <t>0.689 ± 0.015 -&gt; 0.726 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.092 ± 0.016 -&gt; 8.640 ± 9.135</t>
+  </si>
+  <si>
+    <t>[256]*2, b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[256]*1, b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.551 ± 0.160</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.720 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.337 ± 15.243</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.717 ± 0.129</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.736 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.670 ± 15.164</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.730 ± 0.139</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.742 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.833 ± 15.614</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
@@ -280,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,12 +441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -362,23 +495,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,11 +783,409 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="11.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.5121</v>
+      </c>
+      <c r="L2" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.4118</v>
+      </c>
+      <c r="L4" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="L6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.37190000000000001</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -731,9 +1253,20 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.8135</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K3" s="7"/>
@@ -749,15 +1282,26 @@
         <v>13</v>
       </c>
       <c r="E4" s="3">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="7"/>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.61919999999999997</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K5" s="7"/>
@@ -773,310 +1317,6 @@
         <v>13</v>
       </c>
       <c r="E6" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="11:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K28" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
-    <col min="9" max="10" width="26.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0.8135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0.61919999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3">
         <v>0.01</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1115,7 +1355,7 @@
         <v>1E-3</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
@@ -1137,56 +1377,20 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>54</v>
+      <c r="A14" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1244,11 +1448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1323,6 +1527,18 @@
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.85580000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -1343,6 +1559,18 @@
       <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.62509999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -1395,12 +1623,12 @@
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -1421,10 +1649,22 @@
       <c r="G10" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3.0589</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>54</v>
+      <c r="A13" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>

--- a/pre_experiment.xlsx
+++ b/pre_experiment.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A349AD-9EA5-4035-8C6C-491352C2F7DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFB9516-9132-4319-B482-FA242282F296}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2445" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15123" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="106">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nn_se_rSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>real_net_mag_mse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +375,36 @@
   </si>
   <si>
     <t>0.177 ± 0.026 -&gt; 12.833 ± 15.614</t>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.552 ± 0.154</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.723 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.515 ± 13.743</t>
+  </si>
+  <si>
+    <t>real_net_sdrV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSDRv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.495 ± 0.162</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.717 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 10.786 ± 13.963</t>
   </si>
 </sst>
 </file>
@@ -472,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -503,6 +529,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -842,7 +874,7 @@
         <v>36</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -853,7 +885,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1">
         <v>1E-4</v>
@@ -865,13 +897,13 @@
         <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="K2" s="7">
         <v>0.5121</v>
@@ -891,7 +923,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="3">
         <v>2.9999999999999997E-4</v>
@@ -903,13 +935,13 @@
         <v>52</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="K4" s="7">
         <v>0.4118</v>
@@ -929,7 +961,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3">
         <v>1E-3</v>
@@ -941,13 +973,13 @@
         <v>53</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="K6" s="7">
         <v>0.32400000000000001</v>
@@ -969,7 +1001,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="3">
         <v>3.0000000000000001E-3</v>
@@ -981,13 +1013,13 @@
         <v>54</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="K8" s="7">
         <v>0.37190000000000001</v>
@@ -1007,13 +1039,13 @@
         <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1">
         <v>1E-3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>61</v>
@@ -1031,7 +1063,7 @@
         <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1">
         <v>1E-3</v>
@@ -1042,7 +1074,21 @@
       <c r="G12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="H12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.57489999999999997</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K13" s="7"/>
@@ -1055,7 +1101,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="1">
         <v>1E-3</v>
@@ -1066,20 +1112,34 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="H14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.49180000000000001</v>
+      </c>
+      <c r="L14" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1">
         <v>1E-3</v>
@@ -1088,19 +1148,22 @@
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="3:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="1">
         <v>1E-3</v>
@@ -1109,68 +1172,94 @@
         <v>64</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="12"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1">
         <v>1E-3</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="12"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1">
         <v>1E-3</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K28" s="7"/>
     </row>
   </sheetData>
@@ -1528,13 +1617,13 @@
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="K2" s="1">
         <v>0.85580000000000001</v>
@@ -1560,13 +1649,13 @@
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="K4" s="1">
         <v>0.62509999999999999</v>
@@ -1650,13 +1739,13 @@
         <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="K10" s="1">
         <v>3.0589</v>

--- a/pre_experiment.xlsx
+++ b/pre_experiment.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFB9516-9132-4319-B482-FA242282F296}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="2340" windowWidth="20910" windowHeight="11835"/>
   </bookViews>
   <sheets>
-    <sheet name="15123" sheetId="3" r:id="rId1"/>
+    <sheet name="15123, p40同数据" sheetId="3" r:id="rId1"/>
     <sheet name="15123（已丢弃）" sheetId="1" r:id="rId2"/>
     <sheet name="P40（已丢弃）" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="145">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,16 +404,241 @@
   </si>
   <si>
     <t>0.177 ± 0.026 -&gt; 10.786 ± 13.963</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.720 ± 0.131</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.740 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.700 ± 15.231</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.703 ± 0.129</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.743 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.657 ± 15.524</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.742 ± 0.117</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.730 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.000 ± 15.114</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.752 ± 0.128</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.737 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.456 ± 16.769</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.699 ± 0.165</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.735 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.340 ± 18.013</t>
+  </si>
+  <si>
+    <t>real_net_rCosSimV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_sdrV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.443 ± 0.146</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.701 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 10.701 ± 13.946</t>
+  </si>
+  <si>
+    <t>周期为PI，反向方向不敏感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期为2*PI，反向方向敏感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.766 ± 0.140</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.739 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.074 ± 16.622</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.738 ± 0.138</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.961 ± 16.075</t>
+  </si>
+  <si>
+    <t>real_net_sdrV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nn_se_rSDRv2 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1/cos^2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nn_se_rSDRv3 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sin^2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nn_se_rCosSimV1 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-cos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_rCosSimV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nn_se_rCosSimV2 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1-cos)^2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_specTCosSimV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecTCosSimV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_specFCosSimV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecFCosSimV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_specTFCosSimV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecTFCosSimV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,8 +668,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +706,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -521,6 +766,18 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -530,11 +787,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,11 +1072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -829,8 +1086,8 @@
     <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="29.125" style="1" customWidth="1"/>
@@ -969,22 +1226,22 @@
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="11">
         <v>0.32400000000000001</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="10">
         <v>15</v>
       </c>
     </row>
@@ -1050,7 +1307,21 @@
       <c r="G10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="H10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.3911</v>
+      </c>
+      <c r="L10" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K11" s="7"/>
@@ -1147,16 +1418,30 @@
       <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.33850000000000002</v>
+      </c>
+      <c r="L16" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1174,14 +1459,28 @@
       <c r="G18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="12"/>
+      <c r="H18" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.53920000000000001</v>
+      </c>
+      <c r="L18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1199,14 +1498,28 @@
       <c r="G20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="12"/>
+      <c r="H20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2.4315000000000002</v>
+      </c>
+      <c r="L20" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1224,13 +1537,30 @@
       <c r="G22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.52380000000000004</v>
+      </c>
+      <c r="L22" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1248,21 +1578,220 @@
       <c r="G24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2727.0011</v>
+      </c>
+      <c r="L24" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="7">
+        <v>68.805199999999999</v>
+      </c>
+      <c r="L26" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="9"/>
+      <c r="F27" s="4"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="K28" s="7"/>
     </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1.7225999999999999</v>
+      </c>
+      <c r="L30" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A30:A32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1270,7 +1799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1478,19 +2007,19 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1537,11 +2066,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1712,12 +2241,12 @@
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -1752,18 +2281,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/pre_experiment.xlsx
+++ b/pre_experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="2340" windowWidth="20910" windowHeight="11835"/>
+    <workbookView xWindow="9375" yWindow="2340" windowWidth="20910" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="15123, p40同数据" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="178">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,10 +489,6 @@
   </si>
   <si>
     <t>0.177 ± 0.026 -&gt; 13.961 ± 16.075</t>
-  </si>
-  <si>
-    <t>real_net_sdrV3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -630,15 +626,194 @@
     <t>nn_se_rSpecTFCosSimV1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>real_net_rCosSimV1WT10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rCosSimV1WT10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期为PI，反向方向不敏感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.619 ± 0.136</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.716 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.425 ± 11.233</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.708 ± 0.147</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.729 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.446 ± 16.301</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.649 ± 0.175</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.746 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 9.807 ± 10.795</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.791 ± 0.143</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.212 ± 17.377</t>
+  </si>
+  <si>
+    <t>s_val_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_val_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rStSDRV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.741 ± 0.119</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.749 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.960 ± 10.784</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.718 ± 0.145</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.761 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.701 ± 20.372</t>
+  </si>
+  <si>
+    <t>nn_se_rStSDRV3_f1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">real_net_stSDRV3, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1024,256</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">real_net_stSDRV3, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>512</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,128</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_sdrV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0*real_net_spec_mse+
+1.0*real_net_sdrV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecMseSDRv3_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSTWavMSE256</t>
+  </si>
+  <si>
+    <t>nn_se_rSTWavMSE512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>real_net_mag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(wav frame)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_mse</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSTWavMSE256Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSTWavMSE512Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,8 +858,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,6 +902,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -778,6 +980,48 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -786,12 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1087,16 +1325,17 @@
     <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="29.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="11.75" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="11.625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1127,14 +1366,17 @@
       <c r="J1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
@@ -1162,17 +1404,14 @@
       <c r="J2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="20">
         <v>0.5121</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
@@ -1200,17 +1439,14 @@
       <c r="J4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="20">
         <v>0.4118</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
@@ -1238,19 +1474,19 @@
       <c r="J6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="11"/>
+      <c r="L6" s="22">
         <v>0.32400000000000001</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
@@ -1278,17 +1514,14 @@
       <c r="J8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="20">
         <v>0.37190000000000001</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
@@ -1316,17 +1549,14 @@
       <c r="J10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K10" s="7">
+      <c r="L10" s="20">
         <v>0.3911</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>62</v>
       </c>
@@ -1354,17 +1584,14 @@
       <c r="J12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K12" s="7">
+      <c r="L12" s="20">
         <v>0.57489999999999997</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>57</v>
       </c>
@@ -1392,17 +1619,14 @@
       <c r="J14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7">
+      <c r="L14" s="20">
         <v>0.49180000000000001</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>76</v>
       </c>
@@ -1430,17 +1654,16 @@
       <c r="J16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="11"/>
+      <c r="L16" s="22">
         <v>0.33850000000000002</v>
       </c>
-      <c r="L16" s="10">
+      <c r="M16" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
         <v>76</v>
       </c>
@@ -1469,17 +1692,19 @@
         <v>117</v>
       </c>
       <c r="K18" s="7">
+        <v>10.6546</v>
+      </c>
+      <c r="L18" s="20">
         <v>0.53920000000000001</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>76</v>
       </c>
@@ -1507,18 +1732,17 @@
       <c r="J20" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7">
+      <c r="L20" s="20">
         <v>2.4315000000000002</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>76</v>
       </c>
@@ -1546,18 +1770,15 @@
       <c r="J22" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K22" s="7">
+      <c r="L22" s="20">
         <v>0.52380000000000004</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
         <v>126</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1587,19 +1808,18 @@
       <c r="J24" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="20">
         <v>2727.0011</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
       <c r="B26" s="9" t="s">
         <v>76</v>
       </c>
@@ -1616,7 +1836,7 @@
         <v>122</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>131</v>
@@ -1627,47 +1847,33 @@
       <c r="J26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K26" s="7">
+      <c r="L26" s="20">
         <v>68.805199999999999</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
       <c r="B27" s="9"/>
       <c r="F27" s="4"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>127</v>
+    </row>
+    <row r="28" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="F28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="23"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="9"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>76</v>
@@ -1682,32 +1888,34 @@
         <v>1E-3</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="I30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>130</v>
+      <c r="J30" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="K30" s="7">
-        <v>1.7225999999999999</v>
-      </c>
-      <c r="L30" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+        <v>59.6877</v>
+      </c>
+      <c r="L30" s="20">
+        <v>3.1667999999999998</v>
+      </c>
+      <c r="M30" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="B32" s="9" t="s">
         <v>76</v>
       </c>
@@ -1721,13 +1929,37 @@
         <v>1E-3</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" s="7">
+        <v>63.389000000000003</v>
+      </c>
+      <c r="L32" s="20">
+        <v>1.7225999999999999</v>
+      </c>
+      <c r="M32" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="9"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
       <c r="B34" s="9" t="s">
         <v>76</v>
       </c>
@@ -1741,13 +1973,35 @@
         <v>1E-3</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K34" s="7">
+        <v>12.8993</v>
+      </c>
+      <c r="L34" s="20">
+        <v>0.3362</v>
+      </c>
+      <c r="M34" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
       <c r="B36" s="9" t="s">
         <v>76</v>
       </c>
@@ -1761,13 +2015,31 @@
         <v>1E-3</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K36" s="7">
+        <v>32.702199999999998</v>
+      </c>
+      <c r="L36" s="20">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="M36" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
         <v>76</v>
       </c>
@@ -1781,16 +2053,253 @@
         <v>1E-3</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="K38" s="7">
+        <v>59.827599999999997</v>
+      </c>
+      <c r="L38" s="20">
+        <v>8.5539000000000005</v>
+      </c>
+      <c r="M38" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K40" s="7">
+        <v>64.040300000000002</v>
+      </c>
+      <c r="L40" s="20">
+        <v>14.2417</v>
+      </c>
+      <c r="M40" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>144</v>
+      <c r="H42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K42" s="7">
+        <v>65.325100000000006</v>
+      </c>
+      <c r="L42" s="20">
+        <v>11.3294</v>
+      </c>
+      <c r="M42" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B48" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2007,19 +2516,19 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -2241,12 +2750,12 @@
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -2281,18 +2790,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/pre_experiment.xlsx
+++ b/pre_experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="2340" windowWidth="20910" windowHeight="11835"/>
+    <workbookView xWindow="11385" yWindow="2340" windowWidth="20910" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="15123, p40同数据" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="221">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,11 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0*real_net_spec_mse+
-1.0*real_net_sdrV3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nn_se_rSpecMseSDRv3_1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,11 +792,222 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>nn_se_rSTWavMSE512Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wav_frame as features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.365 ± 0.090</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.610 ± 0.010</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 9.631 ± 16.235</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.162 ± 0.224</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.670 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 6.876 ± 10.179</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.722 ± 0.140</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.748 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.667 ± 15.521</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.729 ± 0.133</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.748 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.922 ± 15.789</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.421 ± 16.708</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.179 ± 0.218</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.676 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 7.036 ± 10.345</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.811 ± 0.134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">real_net_sdrV3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(b 0.005)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">real_net_sdrV3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(b 0.010)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">real_net_sdrV3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(b 0.050)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">real_net_sdrV3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(b 0.100)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pendding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSDRv3_b100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSDRv3_b050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSDRv3_b010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSDRv3_b005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>nn_se_rSTWavMSE256Map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nn_se_rSTWavMSE512Map</t>
+    <t>1.0*real_net_spec_mse+
+1.0*real_net_sdrV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0*real_net_wav_L2+
+1.0*real_net_sdrV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rWavL2SDRv3_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_reMagMse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_reSpecMse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMse1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMse100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReMagMse1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReMagMse100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.418 ± 0.090</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.638 ± 0.010</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.403 ± 13.918</t>
+  </si>
+  <si>
+    <t>real_net_reWavL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReWavL2_AFD100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReWavL2_AFD1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,7 +1019,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -873,8 +1079,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -917,6 +1146,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -945,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1019,7 +1260,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1030,6 +1283,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1311,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1336,970 +1592,1399 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="G1" s="33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G2" s="26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K4" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L4" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E5" s="1">
         <v>1E-4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L5" s="20">
         <v>0.5121</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M5" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E7" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L7" s="20">
         <v>0.4118</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M7" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E9" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="22">
+      <c r="K9" s="11"/>
+      <c r="L9" s="22">
         <v>0.32400000000000001</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M9" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E11" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L11" s="20">
         <v>0.37190000000000001</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E13" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L13" s="20">
         <v>0.3911</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M13" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E15" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L15" s="20">
         <v>0.57489999999999997</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M15" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E17" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L17" s="20">
         <v>0.49180000000000001</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M17" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="E19" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I19" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="22">
+      <c r="K19" s="11"/>
+      <c r="L19" s="22">
         <v>0.33850000000000002</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M19" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="8" t="s">
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="E21" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K21" s="7">
         <v>10.6546</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L21" s="20">
         <v>0.53920000000000001</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M21" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="E23" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L23" s="20">
         <v>2.4315000000000002</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M23" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="9" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="E25" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L25" s="20">
         <v>0.52380000000000004</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M25" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+    <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E27" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L27" s="20">
         <v>2727.0011</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M27" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="9" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
+      <c r="B29" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E29" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L29" s="20">
         <v>68.805199999999999</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M29" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="9"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="F28" s="16"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="23"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="9"/>
-      <c r="F29" s="4"/>
-    </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="9"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="F31" s="16"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="23"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="9"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="9"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="9"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="9"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="9"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="9"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="9"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B45" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="E45" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H45" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I45" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J45" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K45" s="7">
         <v>59.6877</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L45" s="20">
         <v>3.1667999999999998</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M45" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="9"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B47" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F48" s="25"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B49" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B51" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B53" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="E55" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H55" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K55" s="7">
         <v>63.389000000000003</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L55" s="20">
         <v>1.7225999999999999</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M55" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="9"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="9" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="27"/>
+      <c r="B56" s="9"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="27"/>
+      <c r="B57" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="E57" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K57" s="7">
         <v>12.8993</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L57" s="20">
         <v>0.3362</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M57" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="9" t="s">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="27"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
+      <c r="B59" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="E59" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K59" s="7">
         <v>32.702199999999998</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L59" s="20">
         <v>0.25819999999999999</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M59" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="9" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B61" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="E61" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J61" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K61" s="7">
         <v>59.827599999999997</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L61" s="20">
         <v>8.5539000000000005</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M61" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="9" t="s">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B63" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F40" s="4" t="s">
+      <c r="E63" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="J63" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K63" s="7">
         <v>64.040300000000002</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L63" s="20">
         <v>14.2417</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M63" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="9" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B65" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="E65" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I65" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K65" s="7">
         <v>65.325100000000006</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L65" s="20">
         <v>11.3294</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M65" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="9" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B67" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="E67" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="9"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="9" t="s">
+      <c r="H67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K67" s="7">
+        <v>54.874200000000002</v>
+      </c>
+      <c r="L67" s="20">
+        <v>13.680899999999999</v>
+      </c>
+      <c r="M67" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B69" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="E69" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="9" t="s">
+      <c r="H69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K69" s="7">
+        <v>52.639800000000001</v>
+      </c>
+      <c r="L69" s="20">
+        <v>12.3826</v>
+      </c>
+      <c r="M69" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B71" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F48" s="4" t="s">
+      <c r="E71" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H71" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K71" s="7">
+        <v>65.562799999999996</v>
+      </c>
+      <c r="L71" s="20">
+        <v>3.7700999999999998</v>
+      </c>
+      <c r="M71" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B72" s="9"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B73" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="9" t="s">
+      <c r="H75" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J75" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K75" s="7">
+        <v>11.206899999999999</v>
+      </c>
+      <c r="L75" s="20">
+        <v>1.466</v>
+      </c>
+      <c r="M75" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="29"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="29"/>
+      <c r="B77" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="E77" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J77" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K77" s="7">
+        <v>11.161300000000001</v>
+      </c>
+      <c r="L77" s="20">
+        <v>1.5928</v>
+      </c>
+      <c r="M77" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="29"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="29"/>
+      <c r="B79" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L79" s="20">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="M79" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="29"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="29"/>
+      <c r="B81" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="I81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K81" s="7">
+        <v>11.2439</v>
+      </c>
+      <c r="L81" s="20">
+        <v>1.6093</v>
+      </c>
+      <c r="M81" s="1">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A24:A26"/>
+  <mergeCells count="3">
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A75:A81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2516,19 +3201,19 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -2750,12 +3435,12 @@
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -2790,18 +3475,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/pre_experiment.xlsx
+++ b/pre_experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="11385" yWindow="2340" windowWidth="20910" windowHeight="11835"/>
+    <workbookView xWindow="12390" yWindow="2340" windowWidth="20910" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="15123, p40同数据" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="233">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -962,52 +962,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>real_net_reMagMse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_reSpecMse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMse1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMse100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReMagMse1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReMagMse100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.418 ± 0.090</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.638 ± 0.010</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.403 ± 13.918</t>
+  </si>
+  <si>
+    <t>real_net_reWavL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReWavL2_AFD100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>nn_se_rWavL2SDRv3_1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>real_net_reMagMse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>real_net_reSpecMse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReSpecMse1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReSpecMse100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReMagMse1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReMagMse100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.418 ± 0.090</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.638 ± 0.010</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 11.403 ± 13.918</t>
-  </si>
-  <si>
-    <t>real_net_reWavL2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReWavL2_AFD100</t>
+    <t>2.068 ± 0.256 -&gt; 2.742 ± 0.122</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.734 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.034 ± 15.360</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.715 ± 0.136</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.579 ± 16.255</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.724 ± 0.132</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.429 ± 14.434</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.775 ± 0.174</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.761 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.425 ± 15.726</t>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_noStop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nn_se_rReWavL2_AFD1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSTWavMSE256Map_noStop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1057,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,6 +1138,19 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1186,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1266,6 +1317,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1284,7 +1338,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1581,7 +1638,7 @@
     <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="29.125" style="1" customWidth="1"/>
@@ -1592,7 +1649,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="27" t="s">
         <v>198</v>
       </c>
     </row>
@@ -1973,10 +2030,12 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="F22" s="4"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1988,27 +2047,13 @@
       <c r="E23" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L23" s="20">
-        <v>2.4315000000000002</v>
-      </c>
-      <c r="M23" s="1">
-        <v>12</v>
-      </c>
+      <c r="F23" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
@@ -2027,31 +2072,31 @@
         <v>1E-3</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>112</v>
+        <v>67</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="L25" s="20">
-        <v>0.52380000000000004</v>
+        <v>2.4315000000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
-        <v>126</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
         <v>76</v>
       </c>
@@ -2065,32 +2110,31 @@
         <v>1E-3</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>123</v>
+        <v>68</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="L27" s="20">
-        <v>2727.0011</v>
+        <v>0.52380000000000004</v>
       </c>
       <c r="M27" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+    <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>126</v>
+      </c>
       <c r="B29" s="9" t="s">
         <v>76</v>
       </c>
@@ -2104,64 +2148,77 @@
         <v>1E-3</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="20">
+        <v>2727.0011</v>
+      </c>
+      <c r="M29" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+      <c r="B31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L31" s="20">
         <v>68.805199999999999</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M31" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="9"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="F31" s="16"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="9"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>214</v>
-      </c>
+    <row r="33" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="F33" s="16"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
@@ -2183,9 +2240,9 @@
         <v>1E-3</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G35" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2209,10 +2266,19 @@
         <v>1E-3</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G37" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>212</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2235,9 +2301,9 @@
         <v>1E-3</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G39" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="G39" s="27" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2245,7 +2311,6 @@
       <c r="A40" s="12"/>
       <c r="B40" s="9"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
@@ -2262,16 +2327,17 @@
         <v>1E-3</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>219</v>
+        <v>209</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="9"/>
       <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
@@ -2288,10 +2354,10 @@
         <v>1E-3</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G43" s="27" t="s">
         <v>218</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -2300,9 +2366,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
-        <v>146</v>
-      </c>
+      <c r="A45" s="12"/>
       <c r="B45" s="9" t="s">
         <v>76</v>
       </c>
@@ -2316,36 +2380,21 @@
         <v>1E-3</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="K45" s="7">
-        <v>59.6877</v>
-      </c>
-      <c r="L45" s="20">
-        <v>3.1667999999999998</v>
-      </c>
-      <c r="M45" s="1">
-        <v>15</v>
+        <v>217</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="9"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="B47" s="9" t="s">
         <v>76</v>
       </c>
@@ -2358,15 +2407,35 @@
       <c r="E47" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>204</v>
+      <c r="F47" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K47" s="7">
+        <v>59.6877</v>
+      </c>
+      <c r="L47" s="20">
+        <v>3.1667999999999998</v>
+      </c>
+      <c r="M47" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F48" s="25"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="9"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
@@ -2381,11 +2450,29 @@
       <c r="E49" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F49" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G49" s="33" t="s">
-        <v>203</v>
+      <c r="F49" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K49" s="7">
+        <v>92.4636</v>
+      </c>
+      <c r="L49" s="20">
+        <v>4.3445999999999998</v>
+      </c>
+      <c r="M49" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -2405,10 +2492,28 @@
         <v>1E-3</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>202</v>
+        <v>195</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K51" s="7">
+        <v>66.959000000000003</v>
+      </c>
+      <c r="L51" s="20">
+        <v>2.9163999999999999</v>
+      </c>
+      <c r="M51" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -2428,16 +2533,34 @@
         <v>1E-3</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>201</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K53" s="7">
+        <v>13.404500000000001</v>
+      </c>
+      <c r="L53" s="20">
+        <v>0.62490000000000001</v>
+      </c>
+      <c r="M53" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F54" s="25"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="27" t="s">
-        <v>127</v>
-      </c>
       <c r="B55" s="9" t="s">
         <v>76</v>
       </c>
@@ -2450,38 +2573,17 @@
       <c r="E55" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>121</v>
+      <c r="F55" s="25" t="s">
+        <v>197</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K55" s="7">
-        <v>63.389000000000003</v>
-      </c>
-      <c r="L55" s="20">
-        <v>1.7225999999999999</v>
-      </c>
-      <c r="M55" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="9"/>
-      <c r="F56" s="4"/>
+        <v>201</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
+      <c r="A57" s="28" t="s">
+        <v>127</v>
+      </c>
       <c r="B57" s="9" t="s">
         <v>76</v>
       </c>
@@ -2495,35 +2597,37 @@
         <v>1E-3</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="K57" s="7">
-        <v>12.8993</v>
+        <v>63.389000000000003</v>
       </c>
       <c r="L57" s="20">
-        <v>0.3362</v>
+        <v>1.7225999999999999</v>
       </c>
       <c r="M57" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="9"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="9" t="s">
         <v>76</v>
       </c>
@@ -2537,31 +2641,35 @@
         <v>1E-3</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K59" s="7">
-        <v>32.702199999999998</v>
+        <v>12.8993</v>
       </c>
       <c r="L59" s="20">
-        <v>0.25819999999999999</v>
+        <v>0.3362</v>
       </c>
       <c r="M59" s="1">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
       <c r="B61" s="9" t="s">
         <v>76</v>
       </c>
@@ -2575,28 +2683,28 @@
         <v>1E-3</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J61" s="24" t="s">
-        <v>155</v>
+        <v>148</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="K61" s="7">
-        <v>59.827599999999997</v>
+        <v>32.702199999999998</v>
       </c>
       <c r="L61" s="20">
-        <v>8.5539000000000005</v>
+        <v>0.25819999999999999</v>
       </c>
       <c r="M61" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -2613,28 +2721,28 @@
         <v>1E-3</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K63" s="7">
-        <v>64.040300000000002</v>
+        <v>59.827599999999997</v>
       </c>
       <c r="L63" s="20">
-        <v>14.2417</v>
+        <v>8.5539000000000005</v>
       </c>
       <c r="M63" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -2651,28 +2759,28 @@
         <v>1E-3</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J65" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="K65" s="7">
-        <v>65.325100000000006</v>
+        <v>64.040300000000002</v>
       </c>
       <c r="L65" s="20">
-        <v>11.3294</v>
+        <v>14.2417</v>
       </c>
       <c r="M65" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -2688,33 +2796,30 @@
       <c r="E67" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>169</v>
+      <c r="F67" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>184</v>
+        <v>164</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="K67" s="7">
-        <v>54.874200000000002</v>
+        <v>65.325100000000006</v>
       </c>
       <c r="L67" s="20">
-        <v>13.680899999999999</v>
+        <v>11.3294</v>
       </c>
       <c r="M67" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B68" s="9"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B69" s="9" t="s">
@@ -2730,31 +2835,34 @@
         <v>1E-3</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K69" s="7">
-        <v>52.639800000000001</v>
+        <v>54.874200000000002</v>
       </c>
       <c r="L69" s="20">
-        <v>12.3826</v>
+        <v>13.680899999999999</v>
       </c>
       <c r="M69" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B71" s="9" t="s">
         <v>76</v>
       </c>
@@ -2767,34 +2875,30 @@
       <c r="E71" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>206</v>
+      <c r="F71" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>193</v>
+        <v>167</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="K71" s="7">
-        <v>65.562799999999996</v>
+        <v>52.639800000000001</v>
       </c>
       <c r="L71" s="20">
-        <v>3.7700999999999998</v>
+        <v>12.3826</v>
       </c>
       <c r="M71" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B72" s="9"/>
-      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
@@ -2810,16 +2914,35 @@
         <v>1E-3</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="28" t="s">
-        <v>176</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K73" s="7">
+        <v>65.562799999999996</v>
+      </c>
+      <c r="L73" s="20">
+        <v>3.7700999999999998</v>
+      </c>
+      <c r="M73" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B74" s="9"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
         <v>76</v>
       </c>
@@ -2832,36 +2955,17 @@
       <c r="E75" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="J75" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="K75" s="7">
-        <v>11.206899999999999</v>
-      </c>
-      <c r="L75" s="20">
-        <v>1.466</v>
-      </c>
-      <c r="M75" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
+      <c r="F75" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G75" s="27" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="29"/>
+      <c r="A77" s="29" t="s">
+        <v>176</v>
+      </c>
       <c r="B77" s="9" t="s">
         <v>76</v>
       </c>
@@ -2878,32 +2982,32 @@
         <v>174</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="K77" s="7">
-        <v>11.161300000000001</v>
+        <v>11.206899999999999</v>
       </c>
       <c r="L77" s="20">
-        <v>1.5928</v>
+        <v>1.466</v>
       </c>
       <c r="M77" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="29"/>
+      <c r="A78" s="30"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="29"/>
+      <c r="A79" s="30"/>
       <c r="B79" s="9" t="s">
         <v>76</v>
       </c>
@@ -2920,29 +3024,32 @@
         <v>174</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>217</v>
+        <v>173</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="I79" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J79" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K79" s="7">
+        <v>11.161300000000001</v>
       </c>
       <c r="L79" s="20">
-        <v>1.1519999999999999</v>
+        <v>1.5928</v>
       </c>
       <c r="M79" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="29"/>
+      <c r="A80" s="30"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="29"/>
+      <c r="A81" s="30"/>
       <c r="B81" s="9" t="s">
         <v>76</v>
       </c>
@@ -2959,32 +3066,97 @@
         <v>174</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L81" s="20">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="M81" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="30"/>
+      <c r="B82" s="9"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="30"/>
+      <c r="B83" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G83" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="30"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="30"/>
+      <c r="B85" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I85" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K81" s="7">
+      <c r="K85" s="7">
         <v>11.2439</v>
       </c>
-      <c r="L81" s="20">
+      <c r="L85" s="20">
         <v>1.6093</v>
       </c>
-      <c r="M81" s="1">
+      <c r="M85" s="1">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A77:A85"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3201,19 +3373,19 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3435,12 +3607,12 @@
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -3475,18 +3647,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/pre_experiment.xlsx
+++ b/pre_experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="12390" yWindow="2340" windowWidth="20910" windowHeight="11835"/>
+    <workbookView xWindow="15405" yWindow="2340" windowWidth="20910" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="15123, p40同数据" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="246">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -970,22 +970,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nn_se_rReSpecMse1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReSpecMse100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReMagMse1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReMagMse100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.068 ± 0.256 -&gt; 2.418 ± 0.090</t>
   </si>
   <si>
@@ -1047,6 +1031,63 @@
   <si>
     <t>nn_se_rSTWavMSE256Map_noStop</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.714 ± 0.152</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.444 ± 18.033</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.598 ± 0.202</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.746 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 9.259 ± 13.323</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.851 ± 0.146</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.768 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.322 ± 16.719</t>
+  </si>
+  <si>
+    <t>nn_se_rReMagMSE100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReMagMSE500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReMagMSE1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMSE100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMSE500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMSE1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.889 ± 0.191</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.767 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.673 ± 19.362</t>
   </si>
 </sst>
 </file>
@@ -1320,6 +1361,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1337,12 +1384,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1624,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="G76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2032,7 +2073,6 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="F22" s="4"/>
-      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
@@ -2047,13 +2087,12 @@
       <c r="E23" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="J23" s="10"/>
+        <v>226</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
@@ -2132,7 +2171,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="30" t="s">
         <v>126</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -2170,10 +2209,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
+      <c r="A30" s="30"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="9" t="s">
         <v>76</v>
       </c>
@@ -2243,7 +2282,25 @@
         <v>208</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K35" s="7">
+        <v>17.315000000000001</v>
+      </c>
+      <c r="L35" s="20">
+        <v>2.6724999999999999</v>
+      </c>
+      <c r="M35" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2268,17 +2325,8 @@
       <c r="F37" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>229</v>
+      <c r="G37" s="27" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2301,10 +2349,28 @@
         <v>1E-3</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K39" s="7">
+        <v>31.6934</v>
+      </c>
+      <c r="L39" s="20">
+        <v>6.3875999999999999</v>
+      </c>
+      <c r="M39" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -2329,15 +2395,32 @@
       <c r="F41" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G41" s="27" t="s">
-        <v>210</v>
+      <c r="G41" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K41" s="7">
+        <v>13.484500000000001</v>
+      </c>
+      <c r="L41" s="20">
+        <v>4.1871999999999998</v>
+      </c>
+      <c r="M41" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="9"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
@@ -2354,10 +2437,10 @@
         <v>1E-3</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -2380,21 +2463,38 @@
         <v>1E-3</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G45" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>231</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K45" s="7">
+        <v>27.962599999999998</v>
+      </c>
+      <c r="L45" s="20">
+        <v>11.773999999999999</v>
+      </c>
+      <c r="M45" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
       <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
-        <v>146</v>
-      </c>
+      <c r="A47" s="12"/>
       <c r="B47" s="9" t="s">
         <v>76</v>
       </c>
@@ -2408,36 +2508,19 @@
         <v>1E-3</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="K47" s="7">
-        <v>59.6877</v>
-      </c>
-      <c r="L47" s="20">
-        <v>3.1667999999999998</v>
-      </c>
-      <c r="M47" s="1">
-        <v>15</v>
+        <v>213</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="9"/>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
       <c r="B49" s="9" t="s">
         <v>76</v>
       </c>
@@ -2450,35 +2533,22 @@
       <c r="E49" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K49" s="7">
-        <v>92.4636</v>
-      </c>
-      <c r="L49" s="20">
-        <v>4.3445999999999998</v>
-      </c>
-      <c r="M49" s="1">
-        <v>10</v>
+      <c r="F49" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F50" s="25"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="9"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="B51" s="9" t="s">
         <v>76</v>
       </c>
@@ -2491,33 +2561,35 @@
       <c r="E51" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F51" s="25" t="s">
-        <v>195</v>
+      <c r="F51" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>224</v>
+        <v>134</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="K51" s="7">
-        <v>66.959000000000003</v>
+        <v>59.6877</v>
       </c>
       <c r="L51" s="20">
-        <v>2.9163999999999999</v>
+        <v>3.1667999999999998</v>
       </c>
       <c r="M51" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F52" s="25"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="9"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
@@ -2532,29 +2604,29 @@
       <c r="E53" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F53" s="25" t="s">
-        <v>196</v>
+      <c r="F53" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K53" s="7">
-        <v>13.404500000000001</v>
+        <v>92.4636</v>
       </c>
       <c r="L53" s="20">
-        <v>0.62490000000000001</v>
+        <v>4.3445999999999998</v>
       </c>
       <c r="M53" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -2574,16 +2646,34 @@
         <v>1E-3</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K55" s="7">
+        <v>66.959000000000003</v>
+      </c>
+      <c r="L55" s="20">
+        <v>2.9163999999999999</v>
+      </c>
+      <c r="M55" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F56" s="25"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="28" t="s">
-        <v>127</v>
-      </c>
       <c r="B57" s="9" t="s">
         <v>76</v>
       </c>
@@ -2596,38 +2686,35 @@
       <c r="E57" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>121</v>
+      <c r="F57" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>128</v>
+        <v>202</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="K57" s="7">
-        <v>63.389000000000003</v>
+        <v>13.404500000000001</v>
       </c>
       <c r="L57" s="20">
-        <v>1.7225999999999999</v>
+        <v>0.62490000000000001</v>
       </c>
       <c r="M57" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="28"/>
-      <c r="B58" s="9"/>
-      <c r="F58" s="4"/>
+      <c r="F58" s="25"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
       <c r="B59" s="9" t="s">
         <v>76</v>
       </c>
@@ -2640,36 +2727,35 @@
       <c r="E59" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>144</v>
+      <c r="F59" s="25" t="s">
+        <v>197</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="K59" s="7">
-        <v>12.8993</v>
+        <v>6.8612000000000002</v>
       </c>
       <c r="L59" s="20">
-        <v>0.3362</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="M59" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
+      <c r="A61" s="30" t="s">
+        <v>127</v>
+      </c>
       <c r="B61" s="9" t="s">
         <v>76</v>
       </c>
@@ -2683,31 +2769,37 @@
         <v>1E-3</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="K61" s="7">
-        <v>32.702199999999998</v>
+        <v>63.389000000000003</v>
       </c>
       <c r="L61" s="20">
-        <v>0.25819999999999999</v>
+        <v>1.7225999999999999</v>
       </c>
       <c r="M61" s="1">
-        <v>9</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="30"/>
+      <c r="B62" s="9"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="30"/>
       <c r="B63" s="9" t="s">
         <v>76</v>
       </c>
@@ -2721,31 +2813,35 @@
         <v>1E-3</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J63" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="K63" s="7">
-        <v>59.827599999999997</v>
+        <v>12.8993</v>
       </c>
       <c r="L63" s="20">
-        <v>8.5539000000000005</v>
+        <v>0.3362</v>
       </c>
       <c r="M63" s="1">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="30"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="30"/>
       <c r="B65" s="9" t="s">
         <v>76</v>
       </c>
@@ -2759,28 +2855,28 @@
         <v>1E-3</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J65" s="24" t="s">
-        <v>163</v>
+        <v>148</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="K65" s="7">
-        <v>64.040300000000002</v>
+        <v>32.702199999999998</v>
       </c>
       <c r="L65" s="20">
-        <v>14.2417</v>
+        <v>0.25819999999999999</v>
       </c>
       <c r="M65" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -2797,28 +2893,28 @@
         <v>1E-3</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J67" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="K67" s="7">
-        <v>65.325100000000006</v>
+        <v>59.827599999999997</v>
       </c>
       <c r="L67" s="20">
-        <v>11.3294</v>
+        <v>8.5539000000000005</v>
       </c>
       <c r="M67" s="1">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -2834,33 +2930,30 @@
       <c r="E69" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>169</v>
+      <c r="F69" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>185</v>
+        <v>162</v>
+      </c>
+      <c r="J69" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="K69" s="7">
-        <v>54.874200000000002</v>
+        <v>64.040300000000002</v>
       </c>
       <c r="L69" s="20">
-        <v>13.680899999999999</v>
+        <v>14.2417</v>
       </c>
       <c r="M69" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B70" s="9"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B71" s="9" t="s">
@@ -2875,32 +2968,32 @@
       <c r="E71" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>168</v>
+      <c r="F71" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="K71" s="7">
-        <v>52.639800000000001</v>
+        <v>65.325100000000006</v>
       </c>
       <c r="L71" s="20">
-        <v>12.3826</v>
+        <v>11.3294</v>
       </c>
       <c r="M71" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
         <v>76</v>
       </c>
@@ -2913,36 +3006,35 @@
       <c r="E73" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>206</v>
+      <c r="F73" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>193</v>
+        <v>160</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J73" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="K73" s="7">
-        <v>65.562799999999996</v>
+        <v>54.874200000000002</v>
       </c>
       <c r="L73" s="20">
-        <v>3.7700999999999998</v>
+        <v>13.680899999999999</v>
       </c>
       <c r="M73" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B74" s="9"/>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
         <v>76</v>
       </c>
@@ -2955,17 +3047,32 @@
       <c r="E75" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="29" t="s">
-        <v>176</v>
-      </c>
+      <c r="F75" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K75" s="7">
+        <v>52.639800000000001</v>
+      </c>
+      <c r="L75" s="20">
+        <v>12.3826</v>
+      </c>
+      <c r="M75" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
         <v>76</v>
       </c>
@@ -2978,36 +3085,36 @@
       <c r="E77" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>174</v>
+      <c r="F77" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H77" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="J77" s="24" t="s">
-        <v>192</v>
+        <v>171</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="K77" s="7">
-        <v>11.206899999999999</v>
+        <v>65.562799999999996</v>
       </c>
       <c r="L77" s="20">
-        <v>1.466</v>
+        <v>3.7700999999999998</v>
       </c>
       <c r="M77" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="30"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="30"/>
+      <c r="B78" s="9"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
         <v>76</v>
       </c>
@@ -3020,36 +3127,17 @@
       <c r="E79" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="I79" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="J79" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="K79" s="7">
-        <v>11.161300000000001</v>
-      </c>
-      <c r="L79" s="20">
-        <v>1.5928</v>
-      </c>
-      <c r="M79" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="30"/>
+      <c r="F79" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G79" s="27" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="30"/>
+      <c r="A81" s="31" t="s">
+        <v>176</v>
+      </c>
       <c r="B81" s="9" t="s">
         <v>76</v>
       </c>
@@ -3066,31 +3154,32 @@
         <v>174</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>216</v>
+        <v>172</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J81" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K81" s="7">
+        <v>11.206899999999999</v>
       </c>
       <c r="L81" s="20">
-        <v>1.1519999999999999</v>
+        <v>1.466</v>
       </c>
       <c r="M81" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="30"/>
-      <c r="B82" s="9"/>
-      <c r="F82" s="2"/>
+      <c r="A82" s="32"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="30"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="9" t="s">
         <v>76</v>
       </c>
@@ -3106,15 +3195,33 @@
       <c r="F83" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G83" s="35" t="s">
-        <v>232</v>
+      <c r="G83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J83" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K83" s="7">
+        <v>11.161300000000001</v>
+      </c>
+      <c r="L83" s="20">
+        <v>1.5928</v>
+      </c>
+      <c r="M83" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="30"/>
+      <c r="A84" s="32"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="30"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="9" t="s">
         <v>76</v>
       </c>
@@ -3131,32 +3238,100 @@
         <v>174</v>
       </c>
       <c r="G85" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K85" s="7">
+        <v>11.2393</v>
+      </c>
+      <c r="L85" s="20">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="M85" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="32"/>
+      <c r="B86" s="9"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="32"/>
+      <c r="B87" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="32"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="32"/>
+      <c r="B89" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K85" s="7">
+      <c r="K89" s="7">
         <v>11.2439</v>
       </c>
-      <c r="L85" s="20">
+      <c r="L89" s="20">
         <v>1.6093</v>
       </c>
-      <c r="M85" s="1">
+      <c r="M89" s="1">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A61:A65"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="A81:A89"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3373,19 +3548,19 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3607,12 +3782,12 @@
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -3647,18 +3822,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/pre_experiment.xlsx
+++ b/pre_experiment.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA53FAD-5529-455B-B1A7-0F7B8366BCDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15405" yWindow="2340" windowWidth="20910" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15123, p40同数据" sheetId="3" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="266">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1089,16 +1090,82 @@
   <si>
     <t>0.177 ± 0.026 -&gt; 12.673 ± 19.362</t>
   </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.770 ± 0.130</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.735 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.145 ± 15.768</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.800 ± 0.161</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.482 ± 17.717</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.749 ± 0.177</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.741 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.058 ± 19.118</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.753 ± 0.200</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.760 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.414 ± 17.222</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.788 ± 0.158</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.762 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.516 ± 16.530</t>
+  </si>
+  <si>
+    <t>nn_se_rReMagMSE50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReMagMSE200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMSE50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMSE200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReWavL2_AFD50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReWavL2_AFD200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,6 +1261,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1278,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1367,6 +1441,12 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1384,6 +1464,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1664,11 +1747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2171,7 +2254,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="32" t="s">
         <v>126</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -2209,10 +2292,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
+      <c r="A30" s="32"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="9" t="s">
         <v>76</v>
       </c>
@@ -2281,26 +2364,8 @@
       <c r="F35" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="K35" s="7">
-        <v>17.315000000000001</v>
-      </c>
-      <c r="L35" s="20">
-        <v>2.6724999999999999</v>
-      </c>
-      <c r="M35" s="1">
-        <v>16</v>
+      <c r="G35" s="27" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2325,8 +2390,26 @@
       <c r="F37" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G37" s="27" t="s">
-        <v>238</v>
+      <c r="G37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" s="7">
+        <v>17.315000000000001</v>
+      </c>
+      <c r="L37" s="20">
+        <v>2.6724999999999999</v>
+      </c>
+      <c r="M37" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2351,26 +2434,8 @@
       <c r="F39" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K39" s="7">
-        <v>31.6934</v>
-      </c>
-      <c r="L39" s="20">
-        <v>6.3875999999999999</v>
-      </c>
-      <c r="M39" s="1">
-        <v>14</v>
+      <c r="G39" s="27" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -2393,28 +2458,28 @@
         <v>1E-3</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="K41" s="7">
-        <v>13.484500000000001</v>
+        <v>27.252500000000001</v>
       </c>
       <c r="L41" s="20">
-        <v>4.1871999999999998</v>
+        <v>5.2050999999999998</v>
       </c>
       <c r="M41" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -2437,10 +2502,28 @@
         <v>1E-3</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>241</v>
+        <v>208</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K43" s="7">
+        <v>31.6934</v>
+      </c>
+      <c r="L43" s="20">
+        <v>6.3875999999999999</v>
+      </c>
+      <c r="M43" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -2465,33 +2548,14 @@
       <c r="F45" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K45" s="7">
-        <v>27.962599999999998</v>
-      </c>
-      <c r="L45" s="20">
-        <v>11.773999999999999</v>
-      </c>
-      <c r="M45" s="1">
-        <v>14</v>
+      <c r="G45" s="27" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
@@ -2508,10 +2572,28 @@
         <v>1E-3</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>214</v>
+        <v>209</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="K47" s="7">
+        <v>13.484500000000001</v>
+      </c>
+      <c r="L47" s="20">
+        <v>4.1871999999999998</v>
+      </c>
+      <c r="M47" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -2534,10 +2616,10 @@
         <v>1E-3</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -2546,9 +2628,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
-        <v>146</v>
-      </c>
+      <c r="A51" s="12"/>
       <c r="B51" s="9" t="s">
         <v>76</v>
       </c>
@@ -2562,36 +2642,37 @@
         <v>1E-3</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>157</v>
+        <v>241</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="K51" s="7">
-        <v>59.6877</v>
+        <v>23.081399999999999</v>
       </c>
       <c r="L51" s="20">
-        <v>3.1667999999999998</v>
+        <v>8.9387000000000008</v>
       </c>
       <c r="M51" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="9"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
       <c r="B53" s="9" t="s">
         <v>76</v>
       </c>
@@ -2604,35 +2685,39 @@
       <c r="E53" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>194</v>
+      <c r="F53" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="K53" s="7">
-        <v>92.4636</v>
+        <v>27.962599999999998</v>
       </c>
       <c r="L53" s="20">
-        <v>4.3445999999999998</v>
+        <v>11.773999999999999</v>
       </c>
       <c r="M53" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F54" s="25"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="9"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="12"/>
       <c r="B55" s="9" t="s">
         <v>76</v>
       </c>
@@ -2645,35 +2730,21 @@
       <c r="E55" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F55" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K55" s="7">
-        <v>66.959000000000003</v>
-      </c>
-      <c r="L55" s="20">
-        <v>2.9163999999999999</v>
-      </c>
-      <c r="M55" s="1">
-        <v>9</v>
+      <c r="F55" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F56" s="25"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="9"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="12"/>
       <c r="B57" s="9" t="s">
         <v>76</v>
       </c>
@@ -2686,35 +2757,39 @@
       <c r="E57" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F57" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>202</v>
+      <c r="F57" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>214</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="K57" s="7">
-        <v>13.404500000000001</v>
+        <v>14.5471</v>
       </c>
       <c r="L57" s="20">
-        <v>0.62490000000000001</v>
+        <v>2.0188000000000001</v>
       </c>
       <c r="M57" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F58" s="25"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="9"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="30"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="12"/>
       <c r="B59" s="9" t="s">
         <v>76</v>
       </c>
@@ -2727,35 +2802,21 @@
       <c r="E59" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F59" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K59" s="7">
-        <v>6.8612000000000002</v>
-      </c>
-      <c r="L59" s="20">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="M59" s="1">
-        <v>12</v>
-      </c>
+      <c r="F59" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G59" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
+      <c r="B60" s="9"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="30"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="30" t="s">
-        <v>127</v>
-      </c>
+      <c r="A61" s="12"/>
       <c r="B61" s="9" t="s">
         <v>76</v>
       </c>
@@ -2769,37 +2830,39 @@
         <v>1E-3</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>128</v>
+        <v>213</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="K61" s="7">
-        <v>63.389000000000003</v>
+        <v>33.6325</v>
       </c>
       <c r="L61" s="20">
-        <v>1.7225999999999999</v>
+        <v>8.0832999999999995</v>
       </c>
       <c r="M61" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="30"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="9"/>
       <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="30"/>
+      <c r="A63" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="B63" s="9" t="s">
         <v>76</v>
       </c>
@@ -2813,35 +2876,36 @@
         <v>1E-3</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="K63" s="7">
-        <v>12.8993</v>
+        <v>59.6877</v>
       </c>
       <c r="L63" s="20">
-        <v>0.3362</v>
+        <v>3.1667999999999998</v>
       </c>
       <c r="M63" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="30"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="9"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="30"/>
       <c r="B65" s="9" t="s">
         <v>76</v>
       </c>
@@ -2854,30 +2918,33 @@
       <c r="E65" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>136</v>
+      <c r="F65" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="K65" s="7">
-        <v>32.702199999999998</v>
+        <v>92.4636</v>
       </c>
       <c r="L65" s="20">
-        <v>0.25819999999999999</v>
+        <v>4.3445999999999998</v>
       </c>
       <c r="M65" s="1">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F66" s="25"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B67" s="9" t="s">
@@ -2892,30 +2959,33 @@
       <c r="E67" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>138</v>
+      <c r="F67" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J67" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="K67" s="7">
-        <v>59.827599999999997</v>
+        <v>66.959000000000003</v>
       </c>
       <c r="L67" s="20">
-        <v>8.5539000000000005</v>
+        <v>2.9163999999999999</v>
       </c>
       <c r="M67" s="1">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F68" s="25"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B69" s="9" t="s">
@@ -2930,30 +3000,33 @@
       <c r="E69" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>140</v>
+      <c r="F69" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J69" s="24" t="s">
-        <v>163</v>
+        <v>113</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="K69" s="7">
-        <v>64.040300000000002</v>
+        <v>13.404500000000001</v>
       </c>
       <c r="L69" s="20">
-        <v>14.2417</v>
+        <v>0.62490000000000001</v>
       </c>
       <c r="M69" s="1">
-        <v>21</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F70" s="25"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B71" s="9" t="s">
@@ -2968,32 +3041,35 @@
       <c r="E71" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>142</v>
+      <c r="F71" s="25" t="s">
+        <v>197</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I71" s="10" t="s">
-        <v>165</v>
+        <v>229</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="K71" s="7">
-        <v>65.325100000000006</v>
+        <v>6.8612000000000002</v>
       </c>
       <c r="L71" s="20">
-        <v>11.3294</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="M71" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="32" t="s">
+        <v>127</v>
+      </c>
       <c r="B73" s="9" t="s">
         <v>76</v>
       </c>
@@ -3006,35 +3082,38 @@
       <c r="E73" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>169</v>
+      <c r="F73" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>183</v>
+        <v>135</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="K73" s="7">
-        <v>54.874200000000002</v>
+        <v>63.389000000000003</v>
       </c>
       <c r="L73" s="20">
-        <v>13.680899999999999</v>
+        <v>1.7225999999999999</v>
       </c>
       <c r="M73" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="32"/>
       <c r="B74" s="9"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="32"/>
       <c r="B75" s="9" t="s">
         <v>76</v>
       </c>
@@ -3047,32 +3126,36 @@
       <c r="E75" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>168</v>
+      <c r="F75" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="K75" s="7">
-        <v>52.639800000000001</v>
+        <v>12.8993</v>
       </c>
       <c r="L75" s="20">
-        <v>12.3826</v>
+        <v>0.3362</v>
       </c>
       <c r="M75" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="32"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="32"/>
       <c r="B77" s="9" t="s">
         <v>76</v>
       </c>
@@ -3086,35 +3169,31 @@
         <v>1E-3</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>193</v>
+        <v>137</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J77" s="10" t="s">
-        <v>189</v>
+        <v>148</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="K77" s="7">
-        <v>65.562799999999996</v>
+        <v>32.702199999999998</v>
       </c>
       <c r="L77" s="20">
-        <v>3.7700999999999998</v>
+        <v>0.25819999999999999</v>
       </c>
       <c r="M77" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B78" s="9"/>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
         <v>76</v>
       </c>
@@ -3128,16 +3207,31 @@
         <v>1E-3</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G79" s="27" t="s">
-        <v>215</v>
+        <v>138</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J79" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="K79" s="7">
+        <v>59.827599999999997</v>
+      </c>
+      <c r="L79" s="20">
+        <v>8.5539000000000005</v>
+      </c>
+      <c r="M79" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="31" t="s">
-        <v>176</v>
-      </c>
       <c r="B81" s="9" t="s">
         <v>76</v>
       </c>
@@ -3150,36 +3244,32 @@
       <c r="E81" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>174</v>
+      <c r="F81" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H81" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="I81" s="24" t="s">
-        <v>191</v>
+        <v>141</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="K81" s="7">
-        <v>11.206899999999999</v>
+        <v>64.040300000000002</v>
       </c>
       <c r="L81" s="20">
-        <v>1.466</v>
+        <v>14.2417</v>
       </c>
       <c r="M81" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="32"/>
       <c r="B83" s="9" t="s">
         <v>76</v>
       </c>
@@ -3192,36 +3282,32 @@
       <c r="E83" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>174</v>
+      <c r="F83" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H83" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="I83" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="J83" s="24" t="s">
-        <v>182</v>
+        <v>143</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="K83" s="7">
-        <v>11.161300000000001</v>
+        <v>65.325100000000006</v>
       </c>
       <c r="L83" s="20">
-        <v>1.5928</v>
+        <v>11.3294</v>
       </c>
       <c r="M83" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="32"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="32"/>
       <c r="B85" s="9" t="s">
         <v>76</v>
       </c>
@@ -3234,38 +3320,35 @@
       <c r="E85" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>174</v>
+      <c r="F85" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="K85" s="7">
-        <v>11.2393</v>
+        <v>54.874200000000002</v>
       </c>
       <c r="L85" s="20">
-        <v>1.1519999999999999</v>
+        <v>13.680899999999999</v>
       </c>
       <c r="M85" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="32"/>
       <c r="B86" s="9"/>
-      <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="32"/>
       <c r="B87" s="9" t="s">
         <v>76</v>
       </c>
@@ -3278,18 +3361,32 @@
       <c r="E87" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G87" s="29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="32"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="32"/>
+      <c r="F87" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K87" s="7">
+        <v>52.639800000000001</v>
+      </c>
+      <c r="L87" s="20">
+        <v>12.3826</v>
+      </c>
+      <c r="M87" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B89" s="9" t="s">
         <v>76</v>
       </c>
@@ -3302,36 +3399,271 @@
       <c r="E89" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>174</v>
+      <c r="F89" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>179</v>
+        <v>110</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="K89" s="7">
-        <v>11.2439</v>
+        <v>65.562799999999996</v>
       </c>
       <c r="L89" s="20">
-        <v>1.6093</v>
+        <v>3.7700999999999998</v>
       </c>
       <c r="M89" s="1">
         <v>18</v>
       </c>
     </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B90" s="9"/>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B91" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="J91" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="K91" s="7">
+        <v>70.593999999999994</v>
+      </c>
+      <c r="L91" s="20">
+        <v>3.9022000000000001</v>
+      </c>
+      <c r="M91" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I93" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J93" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K93" s="7">
+        <v>11.206899999999999</v>
+      </c>
+      <c r="L93" s="20">
+        <v>1.466</v>
+      </c>
+      <c r="M93" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="34"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="34"/>
+      <c r="B95" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="I95" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J95" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K95" s="7">
+        <v>11.161300000000001</v>
+      </c>
+      <c r="L95" s="20">
+        <v>1.5928</v>
+      </c>
+      <c r="M95" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="34"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="34"/>
+      <c r="B97" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K97" s="7">
+        <v>11.2393</v>
+      </c>
+      <c r="L97" s="20">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="M97" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="34"/>
+      <c r="B98" s="9"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="34"/>
+      <c r="B99" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G99" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="34"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="34"/>
+      <c r="B101" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K101" s="7">
+        <v>11.2439</v>
+      </c>
+      <c r="L101" s="20">
+        <v>1.6093</v>
+      </c>
+      <c r="M101" s="1">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A73:A77"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A81:A89"/>
+    <mergeCell ref="A93:A101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3340,7 +3672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3548,19 +3880,19 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3607,7 +3939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3782,12 +4114,12 @@
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -3822,18 +4154,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/pre_experiment.xlsx
+++ b/pre_experiment.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA53FAD-5529-455B-B1A7-0F7B8366BCDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="15123, p40同数据" sheetId="3" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="309">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1133,39 +1132,180 @@
     <t>0.177 ± 0.026 -&gt; 11.516 ± 16.530</t>
   </si>
   <si>
+    <t>nn_se_rReMagMSE200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMSE50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReWavL2_AFD50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReWavL2_AFD200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.750 ± 0.166</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.740 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.022 ± 18.386</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.803 ± 0.152</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.592 ± 17.367</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.787 ± 0.202</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.755 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.505 ± 17.238</t>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMSE200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.903 ± 0.178</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.764 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.997 ± 20.072</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.828 ± 0.160</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.764 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.025 ± 17.316</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.919 ± 0.156</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.777 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.818 ± 19.145</t>
+  </si>
+  <si>
     <t>nn_se_rReMagMSE50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nn_se_rReMagMSE200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReSpecMSE50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReSpecMSE200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReWavL2_AFD50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReWavL2_AFD200</t>
+    <t>nn_se_rSpecMSE_lstmv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_doubleRnnVar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_lstmv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.734 ± 0.139</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.732 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.279 ± 17.443</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.499 ± 0.171</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.709 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.404 ± 18.940</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.408 ± 0.190</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.690 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 9.918 ± 22.330</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.471 ± 0.158</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.697 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 10.688 ± 19.732</t>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_cRNNno05</t>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_lstmv2_big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_lstmv2_lr0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRNN I,f multiply 0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_hybirdSpecMSE_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_hybirdSpecMSE_002</t>
+  </si>
+  <si>
+    <t>post net output cmask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post net output cresidual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_lstmv2_nocnn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_real05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,8 +1408,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1324,6 +1471,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1352,7 +1505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1438,14 +1591,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1465,8 +1624,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1747,11 +1906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1762,7 +1921,7 @@
     <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="29.125" style="1" customWidth="1"/>
@@ -2043,7 +2202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
@@ -2078,7 +2237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>76</v>
       </c>
@@ -2114,8 +2273,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>76</v>
       </c>
@@ -2153,11 +2312,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>76</v>
       </c>
@@ -2173,15 +2332,34 @@
       <c r="F23" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
+      <c r="G23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K23" s="7">
+        <v>12.366400000000001</v>
+      </c>
+      <c r="L23" s="20">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="M23" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="8"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2193,33 +2371,37 @@
       <c r="E25" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>67</v>
+      <c r="F25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>284</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>118</v>
+        <v>290</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>120</v>
+        <v>291</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="7">
+        <v>11.327299999999999</v>
       </c>
       <c r="L25" s="20">
-        <v>2.4315000000000002</v>
+        <v>0.9607</v>
       </c>
       <c r="M25" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="9" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2231,33 +2413,37 @@
       <c r="E27" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>69</v>
+      <c r="F27" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>112</v>
+        <v>285</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>113</v>
+        <v>294</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>114</v>
+        <v>295</v>
+      </c>
+      <c r="K27" s="7">
+        <v>11.262700000000001</v>
       </c>
       <c r="L27" s="20">
-        <v>0.52380000000000004</v>
+        <v>1.0801000000000001</v>
       </c>
       <c r="M27" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="8"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2269,34 +2455,37 @@
       <c r="E29" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>101</v>
+      <c r="F29" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>102</v>
+        <v>286</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>123</v>
+        <v>296</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>124</v>
+        <v>297</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>125</v>
+        <v>298</v>
+      </c>
+      <c r="K29" s="7">
+        <v>11.2783</v>
       </c>
       <c r="L29" s="20">
-        <v>2727.0011</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="M29" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="9" t="s">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="8"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2308,440 +2497,359 @@
       <c r="E31" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="8"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="8"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="8"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="8"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="8"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="8"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="8"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B45" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B47" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L47" s="20">
+        <v>2.4315000000000002</v>
+      </c>
+      <c r="M47" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B49" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L49" s="20">
+        <v>0.52380000000000004</v>
+      </c>
+      <c r="M49" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L51" s="20">
+        <v>2727.0011</v>
+      </c>
+      <c r="M51" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="34"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="34"/>
+      <c r="B53" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L53" s="20">
         <v>68.805199999999999</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M53" s="1">
         <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="9"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="F33" s="16"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="23"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="9"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="9"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J37" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="K37" s="7">
-        <v>17.315000000000001</v>
-      </c>
-      <c r="L37" s="20">
-        <v>2.6724999999999999</v>
-      </c>
-      <c r="M37" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="9"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="9"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K41" s="7">
-        <v>27.252500000000001</v>
-      </c>
-      <c r="L41" s="20">
-        <v>5.2050999999999998</v>
-      </c>
-      <c r="M41" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="9"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K43" s="7">
-        <v>31.6934</v>
-      </c>
-      <c r="L43" s="20">
-        <v>6.3875999999999999</v>
-      </c>
-      <c r="M43" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="9"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="9"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J47" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="K47" s="7">
-        <v>13.484500000000001</v>
-      </c>
-      <c r="L47" s="20">
-        <v>4.1871999999999998</v>
-      </c>
-      <c r="M47" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="9"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="9"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K51" s="7">
-        <v>23.081399999999999</v>
-      </c>
-      <c r="L51" s="20">
-        <v>8.9387000000000008</v>
-      </c>
-      <c r="M51" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="9"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K53" s="7">
-        <v>27.962599999999998</v>
-      </c>
-      <c r="L53" s="20">
-        <v>11.773999999999999</v>
-      </c>
-      <c r="M53" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="9"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G55" s="38" t="s">
-        <v>264</v>
-      </c>
+    </row>
+    <row r="55" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="F55" s="16"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="23"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" s="9"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
@@ -2758,35 +2866,34 @@
         <v>1E-3</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>214</v>
+        <v>208</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="K57" s="7">
-        <v>14.5471</v>
+        <v>13.198</v>
       </c>
       <c r="L57" s="20">
-        <v>2.0188000000000001</v>
+        <v>1.7439</v>
       </c>
       <c r="M57" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" s="9"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="30"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
@@ -2803,17 +2910,34 @@
         <v>1E-3</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G59" s="38" t="s">
-        <v>265</v>
+        <v>208</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K59" s="7">
+        <v>17.315000000000001</v>
+      </c>
+      <c r="L59" s="20">
+        <v>2.6724999999999999</v>
+      </c>
+      <c r="M59" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="9"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="30"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
@@ -2830,25 +2954,25 @@
         <v>1E-3</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G61" s="31" t="s">
-        <v>227</v>
+        <v>208</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="K61" s="7">
-        <v>33.6325</v>
+        <v>22.111799999999999</v>
       </c>
       <c r="L61" s="20">
-        <v>8.0832999999999995</v>
+        <v>3.7414999999999998</v>
       </c>
       <c r="M61" s="1">
         <v>15</v>
@@ -2860,9 +2984,7 @@
       <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="18" t="s">
-        <v>146</v>
-      </c>
+      <c r="A63" s="12"/>
       <c r="B63" s="9" t="s">
         <v>76</v>
       </c>
@@ -2876,36 +2998,37 @@
         <v>1E-3</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>157</v>
+        <v>238</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="K63" s="7">
-        <v>59.6877</v>
+        <v>27.252500000000001</v>
       </c>
       <c r="L63" s="20">
-        <v>3.1667999999999998</v>
+        <v>5.2050999999999998</v>
       </c>
       <c r="M63" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="9"/>
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="12"/>
       <c r="B65" s="9" t="s">
         <v>76</v>
       </c>
@@ -2918,35 +3041,38 @@
       <c r="E65" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>194</v>
+      <c r="F65" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K65" s="7">
-        <v>92.4636</v>
+        <v>31.6934</v>
       </c>
       <c r="L65" s="20">
-        <v>4.3445999999999998</v>
+        <v>6.3875999999999999</v>
       </c>
       <c r="M65" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F66" s="25"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="9"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="12"/>
       <c r="B67" s="9" t="s">
         <v>76</v>
       </c>
@@ -2959,35 +3085,38 @@
       <c r="E67" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F67" s="25" t="s">
-        <v>195</v>
+      <c r="F67" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="K67" s="7">
-        <v>66.959000000000003</v>
+        <v>10.071</v>
       </c>
       <c r="L67" s="20">
-        <v>2.9163999999999999</v>
+        <v>2.8330000000000002</v>
       </c>
       <c r="M67" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F68" s="25"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="9"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="12"/>
       <c r="B69" s="9" t="s">
         <v>76</v>
       </c>
@@ -3000,35 +3129,38 @@
       <c r="E69" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F69" s="25" t="s">
-        <v>196</v>
+      <c r="F69" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>222</v>
+        <v>240</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="J69" s="24" t="s">
+        <v>245</v>
       </c>
       <c r="K69" s="7">
-        <v>13.404500000000001</v>
+        <v>13.484500000000001</v>
       </c>
       <c r="L69" s="20">
-        <v>0.62490000000000001</v>
+        <v>4.1871999999999998</v>
       </c>
       <c r="M69" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F70" s="25"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="9"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="12"/>
       <c r="B71" s="9" t="s">
         <v>76</v>
       </c>
@@ -3041,35 +3173,38 @@
       <c r="E71" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F71" s="25" t="s">
-        <v>197</v>
+      <c r="F71" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>113</v>
+        <v>270</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="K71" s="7">
-        <v>6.8612000000000002</v>
+        <v>17.402000000000001</v>
       </c>
       <c r="L71" s="20">
-        <v>0.32900000000000001</v>
+        <v>6.1516999999999999</v>
       </c>
       <c r="M71" s="1">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="12"/>
+      <c r="B72" s="9"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="32" t="s">
-        <v>127</v>
-      </c>
+      <c r="A73" s="12"/>
       <c r="B73" s="9" t="s">
         <v>76</v>
       </c>
@@ -3083,37 +3218,37 @@
         <v>1E-3</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>128</v>
+        <v>241</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="K73" s="7">
-        <v>63.389000000000003</v>
+        <v>23.081399999999999</v>
       </c>
       <c r="L73" s="20">
-        <v>1.7225999999999999</v>
+        <v>8.9387000000000008</v>
       </c>
       <c r="M73" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="32"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="9"/>
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="9" t="s">
         <v>76</v>
       </c>
@@ -3127,35 +3262,38 @@
         <v>1E-3</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="K75" s="7">
-        <v>12.8993</v>
+        <v>27.962599999999998</v>
       </c>
       <c r="L75" s="20">
-        <v>0.3362</v>
+        <v>11.773999999999999</v>
       </c>
       <c r="M75" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="32"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="9"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="32"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="9" t="s">
         <v>76</v>
       </c>
@@ -3169,31 +3307,38 @@
         <v>1E-3</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="K77" s="7">
-        <v>32.702199999999998</v>
+        <v>8.9269999999999996</v>
       </c>
       <c r="L77" s="20">
-        <v>0.25819999999999999</v>
+        <v>1.0401</v>
       </c>
       <c r="M77" s="1">
-        <v>9</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="12"/>
+      <c r="B78" s="9"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="12"/>
       <c r="B79" s="9" t="s">
         <v>76</v>
       </c>
@@ -3207,69 +3352,83 @@
         <v>1E-3</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>139</v>
+        <v>213</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>214</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J79" s="24" t="s">
-        <v>155</v>
+        <v>107</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="K79" s="7">
-        <v>59.827599999999997</v>
+        <v>14.5471</v>
       </c>
       <c r="L79" s="20">
-        <v>8.5539000000000005</v>
+        <v>2.0188000000000001</v>
       </c>
       <c r="M79" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="12"/>
+      <c r="B80" s="9"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="29"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="12"/>
+      <c r="B81" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K81" s="7">
+        <v>19.479199999999999</v>
+      </c>
+      <c r="L81" s="20">
+        <v>3.5085999999999999</v>
+      </c>
+      <c r="M81" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B81" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E81" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J81" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="K81" s="7">
-        <v>64.040300000000002</v>
-      </c>
-      <c r="L81" s="20">
-        <v>14.2417</v>
-      </c>
-      <c r="M81" s="1">
-        <v>21</v>
-      </c>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="12"/>
+      <c r="B82" s="9"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="29"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="12"/>
       <c r="B83" s="9" t="s">
         <v>76</v>
       </c>
@@ -3283,31 +3442,39 @@
         <v>1E-3</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>143</v>
+        <v>213</v>
+      </c>
+      <c r="G83" s="30" t="s">
+        <v>227</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I83" s="10" t="s">
-        <v>165</v>
+        <v>251</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="K83" s="7">
-        <v>65.325100000000006</v>
+        <v>33.6325</v>
       </c>
       <c r="L83" s="20">
-        <v>11.3294</v>
+        <v>8.0832999999999995</v>
       </c>
       <c r="M83" s="1">
-        <v>27</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="12"/>
+      <c r="B84" s="9"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="B85" s="9" t="s">
         <v>76</v>
       </c>
@@ -3320,33 +3487,35 @@
       <c r="E85" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>169</v>
+      <c r="F85" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>185</v>
+        <v>134</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="K85" s="7">
-        <v>54.874200000000002</v>
+        <v>59.6877</v>
       </c>
       <c r="L85" s="20">
-        <v>13.680899999999999</v>
+        <v>3.1667999999999998</v>
       </c>
       <c r="M85" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="18"/>
       <c r="B86" s="9"/>
+      <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
@@ -3362,31 +3531,34 @@
         <v>1E-3</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="K87" s="7">
-        <v>52.639800000000001</v>
+        <v>92.4636</v>
       </c>
       <c r="L87" s="20">
-        <v>12.3826</v>
+        <v>4.3445999999999998</v>
       </c>
       <c r="M87" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F88" s="25"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B89" s="9" t="s">
         <v>76</v>
       </c>
@@ -3399,36 +3571,35 @@
       <c r="E89" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>206</v>
+      <c r="F89" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>193</v>
+        <v>203</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J89" s="10" t="s">
-        <v>189</v>
+        <v>151</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="K89" s="7">
-        <v>65.562799999999996</v>
+        <v>66.959000000000003</v>
       </c>
       <c r="L89" s="20">
-        <v>3.7700999999999998</v>
+        <v>2.9163999999999999</v>
       </c>
       <c r="M89" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B90" s="9"/>
-      <c r="F90" s="4"/>
-    </row>
-    <row r="91" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F90" s="25"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B91" s="9" t="s">
         <v>76</v>
       </c>
@@ -3441,35 +3612,35 @@
       <c r="E91" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>207</v>
+      <c r="F91" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H91" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="I91" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="J91" s="24" t="s">
-        <v>248</v>
+        <v>202</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="K91" s="7">
-        <v>70.593999999999994</v>
+        <v>13.404500000000001</v>
       </c>
       <c r="L91" s="20">
-        <v>3.9022000000000001</v>
+        <v>0.62490000000000001</v>
       </c>
       <c r="M91" s="1">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F92" s="25"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="33" t="s">
-        <v>176</v>
-      </c>
       <c r="B93" s="9" t="s">
         <v>76</v>
       </c>
@@ -3482,36 +3653,35 @@
       <c r="E93" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>174</v>
+      <c r="F93" s="25" t="s">
+        <v>197</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H93" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="I93" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="J93" s="24" t="s">
-        <v>192</v>
+        <v>201</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="K93" s="7">
-        <v>11.206899999999999</v>
+        <v>6.8612000000000002</v>
       </c>
       <c r="L93" s="20">
-        <v>1.466</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="M93" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="34"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="34"/>
+      <c r="A95" s="34" t="s">
+        <v>127</v>
+      </c>
       <c r="B95" s="9" t="s">
         <v>76</v>
       </c>
@@ -3524,33 +3694,35 @@
       <c r="E95" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>174</v>
+      <c r="F95" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H95" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="I95" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="J95" s="24" t="s">
-        <v>182</v>
+        <v>135</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="K95" s="7">
-        <v>11.161300000000001</v>
+        <v>63.389000000000003</v>
       </c>
       <c r="L95" s="20">
-        <v>1.5928</v>
+        <v>1.7225999999999999</v>
       </c>
       <c r="M95" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="34"/>
+      <c r="B96" s="9"/>
+      <c r="F96" s="4"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="34"/>
@@ -3566,35 +3738,33 @@
       <c r="E97" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>174</v>
+      <c r="F97" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="K97" s="7">
-        <v>11.2393</v>
+        <v>12.8993</v>
       </c>
       <c r="L97" s="20">
-        <v>1.1519999999999999</v>
+        <v>0.3362</v>
       </c>
       <c r="M97" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="34"/>
-      <c r="B98" s="9"/>
-      <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="34"/>
@@ -3610,60 +3780,502 @@
       <c r="E99" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F99" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K99" s="7">
+        <v>32.702199999999998</v>
+      </c>
+      <c r="L99" s="20">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="M99" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B101" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J101" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="K101" s="7">
+        <v>59.827599999999997</v>
+      </c>
+      <c r="L101" s="20">
+        <v>8.5539000000000005</v>
+      </c>
+      <c r="M101" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B103" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J103" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K103" s="7">
+        <v>64.040300000000002</v>
+      </c>
+      <c r="L103" s="20">
+        <v>14.2417</v>
+      </c>
+      <c r="M103" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B105" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I105" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K105" s="7">
+        <v>65.325100000000006</v>
+      </c>
+      <c r="L105" s="20">
+        <v>11.3294</v>
+      </c>
+      <c r="M105" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B107" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K107" s="7">
+        <v>54.874200000000002</v>
+      </c>
+      <c r="L107" s="20">
+        <v>13.680899999999999</v>
+      </c>
+      <c r="M107" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B109" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K109" s="7">
+        <v>52.639800000000001</v>
+      </c>
+      <c r="L109" s="20">
+        <v>12.3826</v>
+      </c>
+      <c r="M109" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B111" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J111" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K111" s="7">
+        <v>65.562799999999996</v>
+      </c>
+      <c r="L111" s="20">
+        <v>3.7700999999999998</v>
+      </c>
+      <c r="M111" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B112" s="9"/>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B113" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H113" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="I113" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="J113" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="K113" s="7">
+        <v>70.593999999999994</v>
+      </c>
+      <c r="L113" s="20">
+        <v>3.9022000000000001</v>
+      </c>
+      <c r="M113" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G99" s="29" t="s">
+      <c r="G115" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H115" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I115" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J115" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K115" s="7">
+        <v>11.206899999999999</v>
+      </c>
+      <c r="L115" s="20">
+        <v>1.466</v>
+      </c>
+      <c r="M115" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="36"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="36"/>
+      <c r="B117" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H117" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="I117" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J117" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K117" s="7">
+        <v>11.161300000000001</v>
+      </c>
+      <c r="L117" s="20">
+        <v>1.5928</v>
+      </c>
+      <c r="M117" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="36"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" s="36"/>
+      <c r="B119" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K119" s="7">
+        <v>11.2393</v>
+      </c>
+      <c r="L119" s="20">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="M119" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="36"/>
+      <c r="B120" s="9"/>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" s="36"/>
+      <c r="B121" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G121" s="32" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="34"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101" s="34"/>
-      <c r="B101" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E101" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F101" s="2" t="s">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" s="36"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" s="36"/>
+      <c r="B123" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I123" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="J123" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K101" s="7">
+      <c r="K123" s="7">
         <v>11.2439</v>
       </c>
-      <c r="L101" s="20">
+      <c r="L123" s="20">
         <v>1.6093</v>
       </c>
-      <c r="M101" s="1">
+      <c r="M123" s="1">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A115:A123"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3672,7 +4284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3880,19 +4492,19 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3939,7 +4551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4114,12 +4726,12 @@
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -4154,18 +4766,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/pre_experiment.xlsx
+++ b/pre_experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
+    <workbookView xWindow="7920" yWindow="-120" windowWidth="28035" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="15123, p40同数据" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="406">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,10 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nn_se_rSpecMseSDRv3_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nn_se_rSTWavMSE256</t>
   </si>
   <si>
@@ -952,349 +948,688 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.0*real_net_wav_L2+
+1.0*real_net_sdrV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_reMagMse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_net_reSpecMse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.418 ± 0.090</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.638 ± 0.010</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.403 ± 13.918</t>
+  </si>
+  <si>
+    <t>real_net_reWavL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReWavL2_AFD100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rWavL2SDRv3_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.742 ± 0.122</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.734 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.034 ± 15.360</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.715 ± 0.136</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.579 ± 16.255</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.724 ± 0.132</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.429 ± 14.434</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.775 ± 0.174</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.761 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.425 ± 15.726</t>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_noStop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReWavL2_AFD1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSTWavMSE256Map_noStop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.714 ± 0.152</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.444 ± 18.033</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.598 ± 0.202</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.746 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 9.259 ± 13.323</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.851 ± 0.146</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.768 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.322 ± 16.719</t>
+  </si>
+  <si>
+    <t>nn_se_rReMagMSE100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReMagMSE500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReMagMSE1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMSE100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMSE500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMSE1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.889 ± 0.191</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.767 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.673 ± 19.362</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.770 ± 0.130</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.735 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.145 ± 15.768</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.800 ± 0.161</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.482 ± 17.717</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.749 ± 0.177</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.741 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.058 ± 19.118</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.753 ± 0.200</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.760 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.414 ± 17.222</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.788 ± 0.158</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.762 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.516 ± 16.530</t>
+  </si>
+  <si>
+    <t>nn_se_rReMagMSE200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMSE50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReWavL2_AFD50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReWavL2_AFD200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.750 ± 0.166</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.740 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.022 ± 18.386</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.803 ± 0.152</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.592 ± 17.367</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.787 ± 0.202</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.755 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.505 ± 17.238</t>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMSE200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.903 ± 0.178</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.764 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.997 ± 20.072</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.828 ± 0.160</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.764 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.025 ± 17.316</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.919 ± 0.156</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.777 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.818 ± 19.145</t>
+  </si>
+  <si>
+    <t>nn_se_rReMagMSE50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_lstmv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_doubleRnnVar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_lstmv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.734 ± 0.139</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.732 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.279 ± 17.443</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.499 ± 0.171</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.709 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.404 ± 18.940</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.408 ± 0.190</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.690 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 9.918 ± 22.330</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.471 ± 0.158</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.697 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 10.688 ± 19.732</t>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_lstmv2_big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_lstmv2_lr0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRNN I,f multiply 0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_hybirdSpecMSE_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post net output cmask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_lstmv2_nocnn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_real05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.260 ± 0.215</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.677 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 7.801 ± 15.944</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.440 ± 0.177</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 10.146 ± 18.664</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.323 ± 0.194</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.682 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 8.753 ± 17.894</t>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_lstmv2_lr003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post net output cspec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_hybirdSpecMSE_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_cRNNno05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.433 ± 0.176</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.696 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 10.254 ± 19.928</t>
+  </si>
+  <si>
+    <t>nn_se_hybirdSpecMSEclipMag_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_hybirdSpecMSEclipMag_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_hybirdSpecMSEclipMag_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_lstmv2_lr01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_hybirdSpecMSE_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.640 ± 0.145</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.732 ± 0.138</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.719 ± 0.012</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.585 ± 0.154</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.084 ± 17.402</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.532 ± 0.163</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 11.387 ± 18.721</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.330 ± 16.252</t>
+  </si>
+  <si>
+    <t>post net output cresidual (1.0, 0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post net output cresidual (0.5, 1.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_hybirdSpecMSE_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.498 ± 0.168</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.705 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 10.643 ± 12.258</t>
+  </si>
+  <si>
+    <t>nn_se_cSpecMSE_clipMag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.646 ± 0.093</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.711 ± 0.011</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.939 ± 13.769</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.713 ± 0.150</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.366 ± 12.072</t>
+  </si>
+  <si>
+    <t>clip input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSEBlstmOrth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReMagMSE20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn+1blstm+1lstm+realpost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn+1blstm+1lstm+comppost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clip input and label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rReSpecMSE20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.643 ± 0.143</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.790 ± 18.254</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.944 ± 0.140</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.775 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.318 ± 18.439</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.876 ± 0.158</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.436 ± 19.495</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.783 ± 0.130</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 14.285 ± 15.625</t>
+  </si>
+  <si>
+    <t>nn_se_rReWavL2_AFD20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post net output cresidual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.707 ± 0.150</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.723 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.470 ± 17.115</t>
+  </si>
+  <si>
+    <t>nn_se_hybirdSpecMSE_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_D_GCoef10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0*real_net_mag_mse+
+1.0*real_net_spec_mse+
+1.0*real_net_sdrV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecMseSDRv3_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rMagSpecMseSDRv3_001</t>
+  </si>
+  <si>
+    <t>nn_se_RRhybirdSpecMSE_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0*real_net_mag_mse+
+1.0*real_net_spec_mse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rMagSpecMse_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.0*real_net_spec_mse+
 1.0*real_net_sdrV3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0*real_net_wav_L2+
+    <t>1.0*real_net_mag_mse+
 1.0*real_net_sdrV3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>real_net_reMagMse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>real_net_reSpecMse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.418 ± 0.090</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.638 ± 0.010</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 11.403 ± 13.918</t>
-  </si>
-  <si>
-    <t>real_net_reWavL2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReWavL2_AFD100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rWavL2SDRv3_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.742 ± 0.122</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.734 ± 0.012</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 14.034 ± 15.360</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.715 ± 0.136</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 13.579 ± 16.255</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.724 ± 0.132</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 13.429 ± 14.434</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.775 ± 0.174</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.761 ± 0.012</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 11.425 ± 15.726</t>
-  </si>
-  <si>
-    <t>nn_se_rSpecMSE_noStop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReWavL2_AFD1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rSTWavMSE256Map_noStop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.714 ± 0.152</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 13.444 ± 18.033</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.598 ± 0.202</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.746 ± 0.013</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 9.259 ± 13.323</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.851 ± 0.146</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.768 ± 0.012</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 12.322 ± 16.719</t>
-  </si>
-  <si>
-    <t>nn_se_rReMagMSE100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReMagMSE500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReMagMSE1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReSpecMSE100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReSpecMSE500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReSpecMSE1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.889 ± 0.191</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.767 ± 0.013</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 12.673 ± 19.362</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.770 ± 0.130</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.735 ± 0.012</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 14.145 ± 15.768</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.800 ± 0.161</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 14.482 ± 17.717</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.749 ± 0.177</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.741 ± 0.012</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 14.058 ± 19.118</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.753 ± 0.200</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.760 ± 0.013</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 11.414 ± 17.222</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.788 ± 0.158</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.762 ± 0.012</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 11.516 ± 16.530</t>
-  </si>
-  <si>
-    <t>nn_se_rReMagMSE200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReSpecMSE50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReWavL2_AFD50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rReWavL2_AFD200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.750 ± 0.166</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.740 ± 0.013</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 14.022 ± 18.386</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.803 ± 0.152</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 14.592 ± 17.367</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.787 ± 0.202</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.755 ± 0.013</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 11.505 ± 17.238</t>
-  </si>
-  <si>
-    <t>nn_se_rReSpecMSE200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.903 ± 0.178</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.764 ± 0.013</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 12.997 ± 20.072</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.828 ± 0.160</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.764 ± 0.012</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 12.025 ± 17.316</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.919 ± 0.156</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.777 ± 0.012</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 12.818 ± 19.145</t>
-  </si>
-  <si>
-    <t>nn_se_rReMagMSE50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_rSpecMSE_lstmv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_cSpecMSE_doubleRnnVar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_cSpecMSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_cSpecMSE_lstmv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.734 ± 0.139</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.732 ± 0.012</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 13.279 ± 17.443</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.499 ± 0.171</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.709 ± 0.013</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 11.404 ± 18.940</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.408 ± 0.190</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.690 ± 0.013</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 9.918 ± 22.330</t>
-  </si>
-  <si>
-    <t>2.068 ± 0.256 -&gt; 2.471 ± 0.158</t>
-  </si>
-  <si>
-    <t>0.672 ± 0.015 -&gt; 0.697 ± 0.013</t>
-  </si>
-  <si>
-    <t>0.177 ± 0.026 -&gt; 10.688 ± 19.732</t>
-  </si>
-  <si>
-    <t>nn_se_cSpecMSE_cRNNno05</t>
-  </si>
-  <si>
-    <t>nn_se_cSpecMSE_lstmv2_big</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_cSpecMSE_lstmv2_lr0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRNN I,f multiply 0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_hybirdSpecMSE_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_hybirdSpecMSE_002</t>
-  </si>
-  <si>
-    <t>post net output cmask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post net output cresidual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_cSpecMSE_lstmv2_nocnn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn_se_cSpecMSE_real05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>nn_se_rMagMseSDRv3_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_D_GRL_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_D_GRL_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_D_GRL_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_D_GRL_307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_D_GRL_007T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_D_GRL_007T1_DFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_D_GRL_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_D_GRL_306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.674 ± 0.148</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.724 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.998 ± 18.952</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.662 ± 0.141</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.983 ± 16.221</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.611 ± 0.159</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.718 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.466 ± 18.840</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.698 ± 0.143</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.925 ± 19.184</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.552 ± 0.178</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.176 ± 18.687</t>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_D_GRL_308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.724 ± 0.013</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.618 ± 0.167</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.307 ± 18.192</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.751 ± 0.134</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.520 ± 18.482</t>
+  </si>
+  <si>
+    <t>nn_se_rSpecMSE_D_GRL_307T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.699 ± 0.148</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.245 ± 17.911</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1640,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1416,7 +1751,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,6 +1812,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1505,7 +1852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1606,6 +1953,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1623,9 +1991,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1907,21 +2272,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="29.125" style="1" customWidth="1"/>
@@ -1931,22 +2296,22 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="G1" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="G2" s="26" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G2" s="26" t="s">
+    <row r="3" spans="1:13">
+      <c r="G3" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G3" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1987,7 +2352,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
@@ -2022,7 +2387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
@@ -2057,7 +2422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
@@ -2093,11 +2458,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
@@ -2132,7 +2497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="B13" s="3" t="s">
         <v>63</v>
       </c>
@@ -2167,7 +2532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="B15" s="3" t="s">
         <v>62</v>
       </c>
@@ -2202,7 +2567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13">
       <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
@@ -2237,7 +2602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13">
       <c r="B19" s="3" t="s">
         <v>76</v>
       </c>
@@ -2273,8 +2638,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="21" spans="2:13">
       <c r="B21" s="8" t="s">
         <v>76</v>
       </c>
@@ -2312,11 +2677,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13">
       <c r="B22" s="8"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13">
       <c r="B23" s="8" t="s">
         <v>76</v>
       </c>
@@ -2329,36 +2694,18 @@
       <c r="E23" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K23" s="7">
-        <v>12.366400000000001</v>
-      </c>
-      <c r="L23" s="20">
-        <v>0.57530000000000003</v>
-      </c>
-      <c r="M23" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G23" s="27" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24" s="8"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13">
       <c r="B25" s="8" t="s">
         <v>76</v>
       </c>
@@ -2371,36 +2718,18 @@
       <c r="E25" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="K25" s="7">
-        <v>11.327299999999999</v>
-      </c>
-      <c r="L25" s="20">
-        <v>0.9607</v>
-      </c>
-      <c r="M25" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G25" s="40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" s="8"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13">
       <c r="B27" s="8" t="s">
         <v>76</v>
       </c>
@@ -2413,623 +2742,649 @@
       <c r="E27" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="8"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="8"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="8"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="8"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="8"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="8"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="8"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="8"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="8"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="8"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="8"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I49" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K49" s="7">
+        <v>12.366400000000001</v>
+      </c>
+      <c r="L49" s="20">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="M49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="8"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K51" s="7">
+        <v>11.327299999999999</v>
+      </c>
+      <c r="L51" s="20">
+        <v>0.9607</v>
+      </c>
+      <c r="M51" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="8"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="K53" s="7">
+        <v>11.262700000000001</v>
+      </c>
+      <c r="L53" s="20">
+        <v>1.0801000000000001</v>
+      </c>
+      <c r="M53" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="8"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="K55" s="7">
+        <v>10.847</v>
+      </c>
+      <c r="L55" s="20">
+        <v>1.3855</v>
+      </c>
+      <c r="M55" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="8"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K27" s="7">
-        <v>11.262700000000001</v>
-      </c>
-      <c r="L27" s="20">
-        <v>1.0801000000000001</v>
-      </c>
-      <c r="M27" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F29" s="28" t="s">
+      <c r="J57" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K57" s="7">
+        <v>11.2783</v>
+      </c>
+      <c r="L57" s="20">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="M57" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="8"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F59" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="G59" s="36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="8"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="8"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="K29" s="7">
-        <v>11.2783</v>
-      </c>
-      <c r="L29" s="20">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="M29" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="8"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="8"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="8"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="8"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="8"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="8"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="H63" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="I63" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="8"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="J63" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="8"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L47" s="20">
-        <v>2.4315000000000002</v>
-      </c>
-      <c r="M47" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B48" s="9"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B49" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L49" s="20">
-        <v>0.52380000000000004</v>
-      </c>
-      <c r="M49" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L51" s="20">
-        <v>2727.0011</v>
-      </c>
-      <c r="M51" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="34"/>
-      <c r="B53" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L53" s="20">
-        <v>68.805199999999999</v>
-      </c>
-      <c r="M53" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="9"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="F55" s="16"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="23"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="9"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K57" s="7">
-        <v>13.198</v>
-      </c>
-      <c r="L57" s="20">
-        <v>1.7439</v>
-      </c>
-      <c r="M57" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="9"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J59" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="K59" s="7">
-        <v>17.315000000000001</v>
-      </c>
-      <c r="L59" s="20">
-        <v>2.6724999999999999</v>
-      </c>
-      <c r="M59" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="9"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K61" s="7">
-        <v>22.111799999999999</v>
-      </c>
-      <c r="L61" s="20">
-        <v>3.7414999999999998</v>
-      </c>
-      <c r="M61" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="9"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="K63" s="7">
-        <v>27.252500000000001</v>
+        <v>11.2826</v>
       </c>
       <c r="L63" s="20">
-        <v>5.2050999999999998</v>
+        <v>1.5552999999999999</v>
       </c>
       <c r="M63" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="9"/>
+    <row r="64" spans="2:13">
+      <c r="B64" s="8"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="9" t="s">
+    <row r="65" spans="1:13">
+      <c r="B65" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -3041,39 +3396,37 @@
       <c r="E65" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>239</v>
+      <c r="F65" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>302</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
       <c r="K65" s="7">
-        <v>31.6934</v>
+        <v>10.999499999999999</v>
       </c>
       <c r="L65" s="20">
-        <v>6.3875999999999999</v>
+        <v>1.2442</v>
       </c>
       <c r="M65" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="B66" s="8"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="9" t="s">
+    <row r="67" spans="1:13">
+      <c r="B67" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -3085,39 +3438,28 @@
       <c r="E67" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="K67" s="7">
-        <v>10.071</v>
-      </c>
-      <c r="L67" s="20">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="M67" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
-      <c r="B68" s="9"/>
+      <c r="F67" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="B68" s="8"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="9" t="s">
+    <row r="69" spans="1:13">
+      <c r="B69" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3129,39 +3471,40 @@
       <c r="E69" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J69" s="24" t="s">
-        <v>245</v>
+      <c r="F69" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="K69" s="7">
-        <v>13.484500000000001</v>
+        <v>11.2662</v>
       </c>
       <c r="L69" s="20">
-        <v>4.1871999999999998</v>
+        <v>1.3282</v>
       </c>
       <c r="M69" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
-      <c r="B70" s="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="B70" s="8"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="12"/>
-      <c r="B71" s="9" t="s">
+    <row r="71" spans="1:13">
+      <c r="A71" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -3173,40 +3516,41 @@
       <c r="E71" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>272</v>
+      <c r="F71" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="K71" s="7">
-        <v>17.402000000000001</v>
+        <v>14.9442</v>
       </c>
       <c r="L71" s="20">
-        <v>6.1516999999999999</v>
+        <v>1.0395000000000001</v>
       </c>
       <c r="M71" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="B72" s="8"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="9" t="s">
-        <v>76</v>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>56</v>
@@ -3217,40 +3561,41 @@
       <c r="E73" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>241</v>
+      <c r="F73" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="K73" s="7">
-        <v>23.081399999999999</v>
+        <v>21.689699999999998</v>
       </c>
       <c r="L73" s="20">
-        <v>8.9387000000000008</v>
+        <v>1.3295999999999999</v>
       </c>
       <c r="M73" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="B74" s="8"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
-      <c r="B75" s="9" t="s">
-        <v>76</v>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>56</v>
@@ -3261,41 +3606,41 @@
       <c r="E75" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>242</v>
+      <c r="F75" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>231</v>
+        <v>325</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>232</v>
+        <v>326</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="K75" s="7">
-        <v>27.962599999999998</v>
+        <v>22.782</v>
       </c>
       <c r="L75" s="20">
-        <v>11.773999999999999</v>
+        <v>1.1821999999999999</v>
       </c>
       <c r="M75" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="12"/>
-      <c r="B76" s="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="B76" s="8"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="12"/>
-      <c r="B77" s="9" t="s">
-        <v>76</v>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>56</v>
@@ -3306,41 +3651,41 @@
       <c r="E77" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>262</v>
+      <c r="F77" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>267</v>
+        <v>339</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>95</v>
+        <v>340</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>268</v>
+        <v>341</v>
       </c>
       <c r="K77" s="7">
-        <v>8.9269999999999996</v>
+        <v>21.5289</v>
       </c>
       <c r="L77" s="20">
-        <v>1.0401</v>
+        <v>1.6351</v>
       </c>
       <c r="M77" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="9"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="12"/>
-      <c r="B79" s="9" t="s">
-        <v>76</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="B78" s="8"/>
+      <c r="F78" s="28"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B79" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>56</v>
@@ -3351,41 +3696,41 @@
       <c r="E79" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G79" s="28" t="s">
-        <v>214</v>
+      <c r="F79" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>334</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>249</v>
+        <v>352</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>250</v>
+        <v>353</v>
       </c>
       <c r="K79" s="7">
-        <v>14.5471</v>
+        <v>16.4331</v>
       </c>
       <c r="L79" s="20">
-        <v>2.0188000000000001</v>
+        <v>1.0147999999999999</v>
       </c>
       <c r="M79" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="12"/>
-      <c r="B80" s="9"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="29"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="12"/>
-      <c r="B81" s="9" t="s">
-        <v>76</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="B80" s="8"/>
+      <c r="F80" s="28"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>56</v>
@@ -3396,41 +3741,41 @@
       <c r="E81" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G81" s="28" t="s">
-        <v>263</v>
+      <c r="F81" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>265</v>
+        <v>364</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="K81" s="7">
-        <v>19.479199999999999</v>
+        <v>15.979799999999999</v>
       </c>
       <c r="L81" s="20">
-        <v>3.5085999999999999</v>
+        <v>0.88019999999999998</v>
       </c>
       <c r="M81" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="12"/>
-      <c r="B82" s="9"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="29"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="12"/>
-      <c r="B83" s="9" t="s">
-        <v>76</v>
+    <row r="82" spans="1:13">
+      <c r="B82" s="8"/>
+      <c r="F82" s="28"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B83" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>56</v>
@@ -3441,42 +3786,41 @@
       <c r="E83" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G83" s="30" t="s">
-        <v>227</v>
+      <c r="F83" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G83" s="37" t="s">
+        <v>319</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>251</v>
+        <v>342</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="K83" s="7">
-        <v>33.6325</v>
+        <v>21.6312</v>
       </c>
       <c r="L83" s="20">
-        <v>8.0832999999999995</v>
+        <v>1.5865</v>
       </c>
       <c r="M83" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="12"/>
-      <c r="B84" s="9"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="B84" s="8"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>76</v>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B85" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>56</v>
@@ -3487,39 +3831,23 @@
       <c r="E85" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I85" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="K85" s="7">
-        <v>59.6877</v>
-      </c>
-      <c r="L85" s="20">
-        <v>3.1667999999999998</v>
-      </c>
-      <c r="M85" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
-      <c r="B86" s="9"/>
+      <c r="F85" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85" s="34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="B86" s="8"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B87" s="9" t="s">
-        <v>76</v>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B87" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>56</v>
@@ -3530,37 +3858,20 @@
       <c r="E87" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K87" s="7">
-        <v>92.4636</v>
-      </c>
-      <c r="L87" s="20">
-        <v>4.3445999999999998</v>
-      </c>
-      <c r="M87" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F88" s="25"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B89" s="9" t="s">
-        <v>76</v>
+      <c r="F87" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G87" s="34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="B88" s="8"/>
+      <c r="F88" s="28"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="B89" s="39" t="s">
+        <v>347</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>56</v>
@@ -3571,36 +3882,19 @@
       <c r="E89" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F89" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K89" s="7">
-        <v>66.959000000000003</v>
-      </c>
-      <c r="L89" s="20">
-        <v>2.9163999999999999</v>
-      </c>
-      <c r="M89" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F90" s="25"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B91" s="9" t="s">
+      <c r="F89" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G89" s="40" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="B90" s="8"/>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="B91" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -3612,35 +3906,17 @@
       <c r="E91" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F91" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K91" s="7">
-        <v>13.404500000000001</v>
-      </c>
-      <c r="L91" s="20">
-        <v>0.62490000000000001</v>
-      </c>
-      <c r="M91" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F92" s="25"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F91" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="B92" s="9"/>
+    </row>
+    <row r="93" spans="1:13">
       <c r="B93" s="9" t="s">
         <v>76</v>
       </c>
@@ -3653,35 +3929,32 @@
       <c r="E93" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F93" s="25" t="s">
-        <v>197</v>
+      <c r="F93" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K93" s="7">
-        <v>6.8612000000000002</v>
+        <v>119</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="L93" s="20">
-        <v>0.32900000000000001</v>
+        <v>2.4315000000000002</v>
       </c>
       <c r="M93" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="34" t="s">
-        <v>127</v>
-      </c>
+    <row r="94" spans="1:13">
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" spans="1:13">
       <c r="B95" s="9" t="s">
         <v>76</v>
       </c>
@@ -3695,37 +3968,31 @@
         <v>1E-3</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K95" s="7">
-        <v>63.389000000000003</v>
+        <v>114</v>
       </c>
       <c r="L95" s="20">
-        <v>1.7225999999999999</v>
+        <v>0.52380000000000004</v>
       </c>
       <c r="M95" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="34"/>
-      <c r="B96" s="9"/>
-      <c r="F96" s="4"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="34"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A97" s="41" t="s">
+        <v>126</v>
+      </c>
       <c r="B97" s="9" t="s">
         <v>76</v>
       </c>
@@ -3739,35 +4006,32 @@
         <v>1E-3</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K97" s="7">
-        <v>12.8993</v>
+        <v>125</v>
       </c>
       <c r="L97" s="20">
-        <v>0.3362</v>
+        <v>2727.0011</v>
       </c>
       <c r="M97" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="34"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="34"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="41"/>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="41"/>
       <c r="B99" s="9" t="s">
         <v>76</v>
       </c>
@@ -3781,69 +4045,46 @@
         <v>1E-3</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K99" s="7">
-        <v>32.702199999999998</v>
+        <v>132</v>
       </c>
       <c r="L99" s="20">
-        <v>0.25819999999999999</v>
+        <v>68.805199999999999</v>
       </c>
       <c r="M99" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B101" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E101" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J101" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="K101" s="7">
-        <v>59.827599999999997</v>
-      </c>
-      <c r="L101" s="20">
-        <v>8.5539000000000005</v>
-      </c>
-      <c r="M101" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
+      <c r="A100" s="12"/>
+      <c r="B100" s="9"/>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:13" s="15" customFormat="1">
+      <c r="A101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="F101" s="16"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="23"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="12"/>
+      <c r="B102" s="9"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="12"/>
       <c r="B103" s="9" t="s">
         <v>76</v>
       </c>
@@ -3857,69 +4098,81 @@
         <v>1E-3</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J103" s="24" t="s">
-        <v>163</v>
+        <v>346</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J103" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="K103" s="7">
-        <v>64.040300000000002</v>
+        <v>8.8792000000000009</v>
       </c>
       <c r="L103" s="20">
-        <v>14.2417</v>
+        <v>0.97809999999999997</v>
       </c>
       <c r="M103" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="12"/>
+      <c r="B104" s="9"/>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="12"/>
+      <c r="B105" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K105" s="7">
+        <v>13.198</v>
+      </c>
+      <c r="L105" s="20">
+        <v>1.7439</v>
+      </c>
+      <c r="M105" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B105" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E105" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I105" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K105" s="7">
-        <v>65.325100000000006</v>
-      </c>
-      <c r="L105" s="20">
-        <v>11.3294</v>
-      </c>
-      <c r="M105" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
+      <c r="A106" s="12"/>
+      <c r="B106" s="9"/>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="12"/>
       <c r="B107" s="9" t="s">
         <v>76</v>
       </c>
@@ -3932,35 +4185,38 @@
       <c r="E107" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>169</v>
+      <c r="F107" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="K107" s="7">
-        <v>54.874200000000002</v>
+        <v>17.315000000000001</v>
       </c>
       <c r="L107" s="20">
-        <v>13.680899999999999</v>
+        <v>2.6724999999999999</v>
       </c>
       <c r="M107" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
+      <c r="A108" s="12"/>
       <c r="B108" s="9"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="12"/>
       <c r="B109" s="9" t="s">
         <v>76</v>
       </c>
@@ -3973,32 +4229,38 @@
       <c r="E109" s="1">
         <v>1E-3</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>168</v>
+      <c r="F109" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="K109" s="7">
-        <v>52.639800000000001</v>
+        <v>22.111799999999999</v>
       </c>
       <c r="L109" s="20">
-        <v>12.3826</v>
+        <v>3.7414999999999998</v>
       </c>
       <c r="M109" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="12"/>
+      <c r="B110" s="9"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="12"/>
       <c r="B111" s="9" t="s">
         <v>76</v>
       </c>
@@ -4015,32 +4277,34 @@
         <v>206</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H111" s="10" t="s">
-        <v>193</v>
+        <v>236</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J111" s="10" t="s">
-        <v>189</v>
+        <v>256</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="K111" s="7">
-        <v>65.562799999999996</v>
+        <v>27.252500000000001</v>
       </c>
       <c r="L111" s="20">
-        <v>3.7700999999999998</v>
+        <v>5.2050999999999998</v>
       </c>
       <c r="M111" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="12"/>
       <c r="B112" s="9"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13">
+      <c r="A113" s="12"/>
       <c r="B113" s="9" t="s">
         <v>76</v>
       </c>
@@ -4054,228 +4318,1397 @@
         <v>1E-3</v>
       </c>
       <c r="F113" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K113" s="7">
+        <v>31.6934</v>
+      </c>
+      <c r="L113" s="20">
+        <v>6.3875999999999999</v>
+      </c>
+      <c r="M113" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="12"/>
+      <c r="B114" s="9"/>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="12"/>
+      <c r="B115" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G115" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K115" s="7">
+        <v>6.4253</v>
+      </c>
+      <c r="L115" s="20">
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="M115" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="12"/>
+      <c r="B116" s="9"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="12"/>
+      <c r="B117" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="J117" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="K117" s="7">
+        <v>10.071</v>
+      </c>
+      <c r="L117" s="20">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="M117" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="12"/>
+      <c r="B118" s="9"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="12"/>
+      <c r="B119" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K119" s="7">
+        <v>13.484500000000001</v>
+      </c>
+      <c r="L119" s="20">
+        <v>4.1871999999999998</v>
+      </c>
+      <c r="M119" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="12"/>
+      <c r="B120" s="9"/>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="12"/>
+      <c r="B121" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K121" s="7">
+        <v>17.402000000000001</v>
+      </c>
+      <c r="L121" s="20">
+        <v>6.1516999999999999</v>
+      </c>
+      <c r="M121" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="12"/>
+      <c r="B122" s="9"/>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="12"/>
+      <c r="B123" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K123" s="7">
+        <v>23.081399999999999</v>
+      </c>
+      <c r="L123" s="20">
+        <v>8.9387000000000008</v>
+      </c>
+      <c r="M123" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="12"/>
+      <c r="B124" s="9"/>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="12"/>
+      <c r="B125" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K125" s="7">
+        <v>27.962599999999998</v>
+      </c>
+      <c r="L125" s="20">
+        <v>11.773999999999999</v>
+      </c>
+      <c r="M125" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="12"/>
+      <c r="B126" s="9"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="12"/>
+      <c r="B127" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K127" s="7">
+        <v>4.7397999999999998</v>
+      </c>
+      <c r="L127" s="20">
+        <v>0.38890000000000002</v>
+      </c>
+      <c r="M127" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="12"/>
+      <c r="B128" s="9"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="12"/>
+      <c r="B129" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="I129" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K129" s="7">
+        <v>8.9269999999999996</v>
+      </c>
+      <c r="L129" s="20">
+        <v>1.0401</v>
+      </c>
+      <c r="M129" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="12"/>
+      <c r="B130" s="9"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="12"/>
+      <c r="B131" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G131" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K131" s="7">
+        <v>14.5471</v>
+      </c>
+      <c r="L131" s="20">
+        <v>2.0188000000000001</v>
+      </c>
+      <c r="M131" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="12"/>
+      <c r="B132" s="9"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="29"/>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="12"/>
+      <c r="B133" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G133" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K133" s="7">
+        <v>19.479199999999999</v>
+      </c>
+      <c r="L133" s="20">
+        <v>3.5085999999999999</v>
+      </c>
+      <c r="M133" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="12"/>
+      <c r="B134" s="9"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="29"/>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="12"/>
+      <c r="B135" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G135" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K135" s="7">
+        <v>33.6325</v>
+      </c>
+      <c r="L135" s="20">
+        <v>8.0832999999999995</v>
+      </c>
+      <c r="M135" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="12"/>
+      <c r="B136" s="9"/>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I137" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J137" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K137" s="7">
+        <v>59.6877</v>
+      </c>
+      <c r="L137" s="20">
+        <v>3.1667999999999998</v>
+      </c>
+      <c r="M137" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="18"/>
+      <c r="B138" s="9"/>
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="B139" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H113" s="24" t="s">
+      <c r="J139" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K139" s="7">
+        <v>92.4636</v>
+      </c>
+      <c r="L139" s="20">
+        <v>4.3445999999999998</v>
+      </c>
+      <c r="M139" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="F140" s="25"/>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="B141" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K141" s="7">
+        <v>66.959000000000003</v>
+      </c>
+      <c r="L141" s="20">
+        <v>2.9163999999999999</v>
+      </c>
+      <c r="M141" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="F142" s="25"/>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="B143" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K143" s="7">
+        <v>13.404500000000001</v>
+      </c>
+      <c r="L143" s="20">
+        <v>0.62490000000000001</v>
+      </c>
+      <c r="M143" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="F144" s="25"/>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="B145" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K145" s="7">
+        <v>6.8612000000000002</v>
+      </c>
+      <c r="L145" s="20">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="M145" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H147" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K147" s="7">
+        <v>63.389000000000003</v>
+      </c>
+      <c r="L147" s="20">
+        <v>1.7225999999999999</v>
+      </c>
+      <c r="M147" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="41"/>
+      <c r="B148" s="9"/>
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="41"/>
+      <c r="B149" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K149" s="7">
+        <v>12.8993</v>
+      </c>
+      <c r="L149" s="20">
+        <v>0.3362</v>
+      </c>
+      <c r="M149" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="41"/>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="41"/>
+      <c r="B151" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K151" s="7">
+        <v>32.702199999999998</v>
+      </c>
+      <c r="L151" s="20">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="M151" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="B153" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J153" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="K153" s="7">
+        <v>59.827599999999997</v>
+      </c>
+      <c r="L153" s="20">
+        <v>8.5539000000000005</v>
+      </c>
+      <c r="M153" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="B155" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J155" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K155" s="7">
+        <v>64.040300000000002</v>
+      </c>
+      <c r="L155" s="20">
+        <v>14.2417</v>
+      </c>
+      <c r="M155" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="B157" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I157" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K157" s="7">
+        <v>65.325100000000006</v>
+      </c>
+      <c r="L157" s="20">
+        <v>11.3294</v>
+      </c>
+      <c r="M157" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="B159" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K159" s="7">
+        <v>54.874200000000002</v>
+      </c>
+      <c r="L159" s="20">
+        <v>13.680899999999999</v>
+      </c>
+      <c r="M159" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="B160" s="9"/>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="B161" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K161" s="7">
+        <v>52.639800000000001</v>
+      </c>
+      <c r="L161" s="20">
+        <v>12.3826</v>
+      </c>
+      <c r="M161" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="28.5">
+      <c r="B163" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H163" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="I163" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="J163" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="I113" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="J113" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="K113" s="7">
+      <c r="K163" s="7">
         <v>70.593999999999994</v>
       </c>
-      <c r="L113" s="20">
+      <c r="L163" s="20">
         <v>3.9022000000000001</v>
       </c>
-      <c r="M113" s="1">
+      <c r="M163" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115" s="35" t="s">
+    <row r="165" spans="1:13" ht="28.5">
+      <c r="B165" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E165" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F165" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H165" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J165" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="K165" s="7">
+        <v>65.562799999999996</v>
+      </c>
+      <c r="L165" s="20">
+        <v>3.7700999999999998</v>
+      </c>
+      <c r="M165" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="B166" s="9"/>
+      <c r="F166" s="4"/>
+    </row>
+    <row r="167" spans="1:13" ht="28.5">
+      <c r="B167" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G167" s="40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="B168" s="9"/>
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169" spans="1:13" ht="28.5">
+      <c r="B169" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G169" s="40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="B170" s="9"/>
+      <c r="F170" s="4"/>
+    </row>
+    <row r="171" spans="1:13" ht="42.75">
+      <c r="B171" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G171" s="40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H173" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="I173" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J173" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K173" s="7">
+        <v>11.206899999999999</v>
+      </c>
+      <c r="L173" s="20">
+        <v>1.466</v>
+      </c>
+      <c r="M173" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" s="43"/>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175" s="43"/>
+      <c r="B175" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H175" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I175" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J175" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K175" s="7">
+        <v>11.161300000000001</v>
+      </c>
+      <c r="L175" s="20">
+        <v>1.5928</v>
+      </c>
+      <c r="M175" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="A176" s="43"/>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" s="43"/>
+      <c r="B177" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K177" s="7">
+        <v>11.2393</v>
+      </c>
+      <c r="L177" s="20">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="M177" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" s="43"/>
+      <c r="B178" s="9"/>
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" s="43"/>
+      <c r="B179" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G179" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180" s="43"/>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" s="43"/>
+      <c r="B181" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H181" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E115" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H115" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="I115" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="J115" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="K115" s="7">
-        <v>11.206899999999999</v>
-      </c>
-      <c r="L115" s="20">
-        <v>1.466</v>
-      </c>
-      <c r="M115" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116" s="36"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A117" s="36"/>
-      <c r="B117" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E117" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H117" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="I117" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="J117" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="K117" s="7">
-        <v>11.161300000000001</v>
-      </c>
-      <c r="L117" s="20">
-        <v>1.5928</v>
-      </c>
-      <c r="M117" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118" s="36"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A119" s="36"/>
-      <c r="B119" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E119" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K119" s="7">
-        <v>11.2393</v>
-      </c>
-      <c r="L119" s="20">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="M119" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120" s="36"/>
-      <c r="B120" s="9"/>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A121" s="36"/>
-      <c r="B121" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E121" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G121" s="32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A122" s="36"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A123" s="36"/>
-      <c r="B123" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E123" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H123" s="1" t="s">
+      <c r="I181" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="J181" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J123" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K123" s="7">
+      <c r="K181" s="7">
         <v>11.2439</v>
       </c>
-      <c r="L123" s="20">
+      <c r="L181" s="20">
         <v>1.6093</v>
       </c>
-      <c r="M123" s="1">
+      <c r="M181" s="1">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A115:A123"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A173:A181"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4291,7 +5724,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -4304,7 +5737,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -4339,7 +5772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4371,10 +5804,10 @@
         <v>0.8135</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4406,10 +5839,10 @@
         <v>0.61919999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4441,10 +5874,10 @@
         <v>0.85160000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="28.5">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -4476,68 +5909,68 @@
         <v>1.4086000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:11">
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:11">
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:11">
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:11">
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:11">
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="11:11">
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="11:11">
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="11:11">
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="11:11">
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="11:11">
       <c r="K26" s="7"/>
     </row>
   </sheetData>
@@ -4558,7 +5991,7 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
@@ -4573,7 +6006,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -4608,7 +6041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -4643,7 +6076,7 @@
         <v>0.85580000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
@@ -4675,7 +6108,7 @@
         <v>0.62509999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4707,7 +6140,7 @@
         <v>0.64639999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -4726,14 +6159,14 @@
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -4765,19 +6198,19 @@
         <v>3.0589</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
